--- a/published-data/fonds-solidarite/fds-2021-05-22/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-05-22/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1170,13 +1170,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>33324</v>
+        <v>33430</v>
       </c>
       <c r="D2">
-        <v>8959</v>
+        <v>8962</v>
       </c>
       <c r="E2">
-        <v>59212716</v>
+        <v>59486177</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1275,13 +1275,13 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D5">
         <v>34</v>
       </c>
       <c r="E5">
-        <v>1127818</v>
+        <v>1137818</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1310,13 +1310,13 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>14873</v>
+        <v>14944</v>
       </c>
       <c r="D6">
-        <v>3754</v>
+        <v>3756</v>
       </c>
       <c r="E6">
-        <v>63111425</v>
+        <v>63609528</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1380,13 +1380,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>8347</v>
+        <v>8393</v>
       </c>
       <c r="D8">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E8">
-        <v>39620494</v>
+        <v>40033588</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -1415,13 +1415,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9">
-        <v>1110370</v>
+        <v>1136370</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1450,13 +1450,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="D10">
         <v>239</v>
       </c>
       <c r="E10">
-        <v>4692414</v>
+        <v>4710695</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1485,13 +1485,13 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>22613</v>
+        <v>22685</v>
       </c>
       <c r="D11">
-        <v>5679</v>
+        <v>5684</v>
       </c>
       <c r="E11">
-        <v>41156517</v>
+        <v>41302597</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1520,13 +1520,13 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>115855</v>
+        <v>127900</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1590,13 +1590,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D14">
         <v>29</v>
       </c>
       <c r="E14">
-        <v>831217</v>
+        <v>844666</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1625,13 +1625,13 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>7543</v>
+        <v>7578</v>
       </c>
       <c r="D15">
         <v>1792</v>
       </c>
       <c r="E15">
-        <v>31008703</v>
+        <v>31348327</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1695,13 +1695,13 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>3764</v>
+        <v>3790</v>
       </c>
       <c r="D17">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E17">
-        <v>17574076</v>
+        <v>17723054</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1730,13 +1730,13 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="D18">
         <v>409</v>
       </c>
       <c r="E18">
-        <v>1761200</v>
+        <v>1770200</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -1765,13 +1765,13 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="D19">
         <v>131</v>
       </c>
       <c r="E19">
-        <v>2397414</v>
+        <v>2410774</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1800,13 +1800,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>29487</v>
+        <v>29561</v>
       </c>
       <c r="D20">
-        <v>6855</v>
+        <v>6856</v>
       </c>
       <c r="E20">
-        <v>53457017</v>
+        <v>53711351</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -1905,13 +1905,13 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D23">
         <v>24</v>
       </c>
       <c r="E23">
-        <v>791140</v>
+        <v>810949</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -1940,13 +1940,13 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>11769</v>
+        <v>11801</v>
       </c>
       <c r="D24">
         <v>2515</v>
       </c>
       <c r="E24">
-        <v>51716043</v>
+        <v>51989930</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -2010,13 +2010,13 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <v>4373</v>
+        <v>4389</v>
       </c>
       <c r="D26">
         <v>897</v>
       </c>
       <c r="E26">
-        <v>21632909</v>
+        <v>21813698</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -2045,13 +2045,13 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D27">
         <v>177</v>
       </c>
       <c r="E27">
-        <v>1632281</v>
+        <v>1634417</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -2080,13 +2080,13 @@
         <v>12</v>
       </c>
       <c r="C28">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D28">
         <v>187</v>
       </c>
       <c r="E28">
-        <v>3232049</v>
+        <v>3237349</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
@@ -2115,13 +2115,13 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>13659</v>
+        <v>13707</v>
       </c>
       <c r="D29">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="E29">
-        <v>27690094</v>
+        <v>27843444</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -2150,13 +2150,13 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>60505</v>
+        <v>68889</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -2185,13 +2185,13 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D31">
         <v>24</v>
       </c>
       <c r="E31">
-        <v>1198669</v>
+        <v>1264785</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -2220,13 +2220,13 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>3813</v>
+        <v>3842</v>
       </c>
       <c r="D32">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E32">
-        <v>16393658</v>
+        <v>16651412</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -2290,13 +2290,13 @@
         <v>12</v>
       </c>
       <c r="C34">
-        <v>1432</v>
+        <v>1439</v>
       </c>
       <c r="D34">
         <v>328</v>
       </c>
       <c r="E34">
-        <v>6969574</v>
+        <v>7044876</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -2325,13 +2325,13 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="D35">
         <v>388</v>
       </c>
       <c r="E35">
-        <v>1445249</v>
+        <v>1452605</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -2395,13 +2395,13 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D37">
         <v>81</v>
       </c>
       <c r="E37">
-        <v>1310733</v>
+        <v>1314927</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -2430,13 +2430,13 @@
         <v>12</v>
       </c>
       <c r="C38">
-        <v>44270</v>
+        <v>44412</v>
       </c>
       <c r="D38">
-        <v>10706</v>
+        <v>10712</v>
       </c>
       <c r="E38">
-        <v>73146078</v>
+        <v>73557826</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -2465,13 +2465,13 @@
         <v>12</v>
       </c>
       <c r="C39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39">
         <v>7</v>
       </c>
       <c r="E39">
-        <v>165145</v>
+        <v>168760</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -2570,13 +2570,13 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>17869</v>
+        <v>17944</v>
       </c>
       <c r="D42">
         <v>4075</v>
       </c>
       <c r="E42">
-        <v>76571560</v>
+        <v>77360785</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -2605,13 +2605,13 @@
         <v>12</v>
       </c>
       <c r="C43">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <v>12</v>
       </c>
       <c r="E43">
-        <v>515471</v>
+        <v>563509</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -2640,13 +2640,13 @@
         <v>12</v>
       </c>
       <c r="C44">
-        <v>9945</v>
+        <v>9982</v>
       </c>
       <c r="D44">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="E44">
-        <v>46249648</v>
+        <v>46541339</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -2710,13 +2710,13 @@
         <v>12</v>
       </c>
       <c r="C46">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="D46">
         <v>216</v>
       </c>
       <c r="E46">
-        <v>2457967</v>
+        <v>2511592</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -2745,13 +2745,13 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>1915</v>
+        <v>1938</v>
       </c>
       <c r="D47">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E47">
-        <v>6311596</v>
+        <v>6482282</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2780,13 +2780,13 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>16382</v>
+        <v>16414</v>
       </c>
       <c r="D48">
-        <v>4045</v>
+        <v>4048</v>
       </c>
       <c r="E48">
-        <v>32261109</v>
+        <v>32365835</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -2850,13 +2850,13 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D50">
         <v>38</v>
       </c>
       <c r="E50">
-        <v>1205280</v>
+        <v>1215280</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2885,13 +2885,13 @@
         <v>12</v>
       </c>
       <c r="C51">
-        <v>6226</v>
+        <v>6263</v>
       </c>
       <c r="D51">
         <v>1442</v>
       </c>
       <c r="E51">
-        <v>26254047</v>
+        <v>26669290</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -2955,13 +2955,13 @@
         <v>12</v>
       </c>
       <c r="C53">
-        <v>2502</v>
+        <v>2515</v>
       </c>
       <c r="D53">
         <v>557</v>
       </c>
       <c r="E53">
-        <v>10587540</v>
+        <v>10705386</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -2990,13 +2990,13 @@
         <v>12</v>
       </c>
       <c r="C54">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D54">
         <v>123</v>
       </c>
       <c r="E54">
-        <v>655377</v>
+        <v>659027</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -3025,13 +3025,13 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="D55">
         <v>143</v>
       </c>
       <c r="E55">
-        <v>2235254</v>
+        <v>2254379</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -3060,13 +3060,13 @@
         <v>12</v>
       </c>
       <c r="C56">
-        <v>82855</v>
+        <v>83172</v>
       </c>
       <c r="D56">
-        <v>18625</v>
+        <v>18629</v>
       </c>
       <c r="E56">
-        <v>163836165</v>
+        <v>164856694</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -3130,13 +3130,13 @@
         <v>12</v>
       </c>
       <c r="C58">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D58">
         <v>55</v>
       </c>
       <c r="E58">
-        <v>1678560</v>
+        <v>1698005</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
@@ -3235,13 +3235,13 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>37659</v>
+        <v>37883</v>
       </c>
       <c r="D61">
-        <v>7959</v>
+        <v>7962</v>
       </c>
       <c r="E61">
-        <v>220099995</v>
+        <v>222404445</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -3270,13 +3270,13 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D62">
         <v>36</v>
       </c>
       <c r="E62">
-        <v>4880391</v>
+        <v>4890391</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -3340,13 +3340,13 @@
         <v>12</v>
       </c>
       <c r="C64">
-        <v>16197</v>
+        <v>16293</v>
       </c>
       <c r="D64">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="E64">
-        <v>115711428</v>
+        <v>116863053</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
@@ -3410,13 +3410,13 @@
         <v>12</v>
       </c>
       <c r="C66">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D66">
         <v>230</v>
       </c>
       <c r="E66">
-        <v>1866134</v>
+        <v>1876628</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
@@ -3480,13 +3480,13 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>1301</v>
+        <v>1316</v>
       </c>
       <c r="D68">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E68">
-        <v>8758044</v>
+        <v>8849350</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
@@ -3515,13 +3515,13 @@
         <v>12</v>
       </c>
       <c r="C69">
-        <v>92206</v>
+        <v>92430</v>
       </c>
       <c r="D69">
         <v>22695</v>
       </c>
       <c r="E69">
-        <v>158701014</v>
+        <v>159275665</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
@@ -3655,13 +3655,13 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D73">
         <v>53</v>
       </c>
       <c r="E73">
-        <v>1493709</v>
+        <v>1518857</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
@@ -3690,13 +3690,13 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <v>41399</v>
+        <v>41560</v>
       </c>
       <c r="D74">
-        <v>9584</v>
+        <v>9587</v>
       </c>
       <c r="E74">
-        <v>185550852</v>
+        <v>186939286</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
@@ -3725,13 +3725,13 @@
         <v>12</v>
       </c>
       <c r="C75">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D75">
         <v>27</v>
       </c>
       <c r="E75">
-        <v>2330174</v>
+        <v>2364794</v>
       </c>
       <c r="F75" t="s">
         <v>13</v>
@@ -3760,13 +3760,13 @@
         <v>12</v>
       </c>
       <c r="C76">
-        <v>23037</v>
+        <v>23133</v>
       </c>
       <c r="D76">
-        <v>4981</v>
+        <v>4982</v>
       </c>
       <c r="E76">
-        <v>106367578</v>
+        <v>107139560</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
@@ -3830,13 +3830,13 @@
         <v>12</v>
       </c>
       <c r="C78">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D78">
         <v>219</v>
       </c>
       <c r="E78">
-        <v>1506551</v>
+        <v>1513817</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
@@ -3900,13 +3900,13 @@
         <v>12</v>
       </c>
       <c r="C80">
-        <v>2860</v>
+        <v>2873</v>
       </c>
       <c r="D80">
         <v>586</v>
       </c>
       <c r="E80">
-        <v>11835630</v>
+        <v>11909621</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
@@ -3935,13 +3935,13 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>48178</v>
+        <v>48299</v>
       </c>
       <c r="D81">
-        <v>11852</v>
+        <v>11853</v>
       </c>
       <c r="E81">
-        <v>82924018</v>
+        <v>83278656</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
@@ -3970,13 +3970,13 @@
         <v>12</v>
       </c>
       <c r="C82">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D82">
         <v>12</v>
       </c>
       <c r="E82">
-        <v>175895</v>
+        <v>181902</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
@@ -4005,13 +4005,13 @@
         <v>12</v>
       </c>
       <c r="C83">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D83">
         <v>79</v>
       </c>
       <c r="E83">
-        <v>2358941</v>
+        <v>2394979</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
@@ -4040,13 +4040,13 @@
         <v>12</v>
       </c>
       <c r="C84">
-        <v>18900</v>
+        <v>18969</v>
       </c>
       <c r="D84">
-        <v>4706</v>
+        <v>4708</v>
       </c>
       <c r="E84">
-        <v>76007918</v>
+        <v>76655914</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -4110,13 +4110,13 @@
         <v>12</v>
       </c>
       <c r="C86">
-        <v>11641</v>
+        <v>11680</v>
       </c>
       <c r="D86">
         <v>2715</v>
       </c>
       <c r="E86">
-        <v>47758505</v>
+        <v>48024726</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -4180,13 +4180,13 @@
         <v>12</v>
       </c>
       <c r="C88">
-        <v>2274</v>
+        <v>2279</v>
       </c>
       <c r="D88">
         <v>448</v>
       </c>
       <c r="E88">
-        <v>7682339</v>
+        <v>7724915</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -4215,13 +4215,13 @@
         <v>12</v>
       </c>
       <c r="C89">
-        <v>43780</v>
+        <v>43889</v>
       </c>
       <c r="D89">
-        <v>10595</v>
+        <v>10597</v>
       </c>
       <c r="E89">
-        <v>76071311</v>
+        <v>76440684</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -4320,13 +4320,13 @@
         <v>12</v>
       </c>
       <c r="C92">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D92">
         <v>41</v>
       </c>
       <c r="E92">
-        <v>1497967</v>
+        <v>1532168</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
@@ -4355,13 +4355,13 @@
         <v>12</v>
       </c>
       <c r="C93">
-        <v>21514</v>
+        <v>21627</v>
       </c>
       <c r="D93">
-        <v>4804</v>
+        <v>4806</v>
       </c>
       <c r="E93">
-        <v>94024171</v>
+        <v>95098169</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
@@ -4390,13 +4390,13 @@
         <v>12</v>
       </c>
       <c r="C94">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D94">
         <v>23</v>
       </c>
       <c r="E94">
-        <v>1992052</v>
+        <v>2044508</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
@@ -4425,13 +4425,13 @@
         <v>12</v>
       </c>
       <c r="C95">
-        <v>8385</v>
+        <v>8447</v>
       </c>
       <c r="D95">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="E95">
-        <v>40589426</v>
+        <v>41107357</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
@@ -4530,13 +4530,13 @@
         <v>12</v>
       </c>
       <c r="C98">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="D98">
         <v>271</v>
       </c>
       <c r="E98">
-        <v>5144618</v>
+        <v>5207931</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
@@ -4565,13 +4565,13 @@
         <v>12</v>
       </c>
       <c r="C99">
-        <v>162937</v>
+        <v>163245</v>
       </c>
       <c r="D99">
-        <v>37537</v>
+        <v>37544</v>
       </c>
       <c r="E99">
-        <v>266791400</v>
+        <v>267527331</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
@@ -4670,13 +4670,13 @@
         <v>12</v>
       </c>
       <c r="C102">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D102">
         <v>111</v>
       </c>
       <c r="E102">
-        <v>3081021</v>
+        <v>3102837</v>
       </c>
       <c r="F102" t="s">
         <v>13</v>
@@ -4740,13 +4740,13 @@
         <v>12</v>
       </c>
       <c r="C104">
-        <v>69769</v>
+        <v>70031</v>
       </c>
       <c r="D104">
         <v>15947</v>
       </c>
       <c r="E104">
-        <v>293443255</v>
+        <v>295411453</v>
       </c>
       <c r="F104" t="s">
         <v>13</v>
@@ -4775,13 +4775,13 @@
         <v>12</v>
       </c>
       <c r="C105">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D105">
         <v>34</v>
       </c>
       <c r="E105">
-        <v>1661870</v>
+        <v>1694268</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
@@ -4845,13 +4845,13 @@
         <v>12</v>
       </c>
       <c r="C107">
-        <v>50607</v>
+        <v>50778</v>
       </c>
       <c r="D107">
-        <v>10773</v>
+        <v>10776</v>
       </c>
       <c r="E107">
-        <v>223234437</v>
+        <v>224872895</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
@@ -4915,13 +4915,13 @@
         <v>12</v>
       </c>
       <c r="C109">
-        <v>1358</v>
+        <v>1364</v>
       </c>
       <c r="D109">
         <v>425</v>
       </c>
       <c r="E109">
-        <v>4197632</v>
+        <v>4223632</v>
       </c>
       <c r="F109" t="s">
         <v>13</v>
@@ -4985,13 +4985,13 @@
         <v>12</v>
       </c>
       <c r="C111">
-        <v>5927</v>
+        <v>5950</v>
       </c>
       <c r="D111">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E111">
-        <v>21729630</v>
+        <v>21881453</v>
       </c>
       <c r="F111" t="s">
         <v>13</v>
@@ -5055,13 +5055,13 @@
         <v>12</v>
       </c>
       <c r="C113">
-        <v>70307</v>
+        <v>70644</v>
       </c>
       <c r="D113">
-        <v>14133</v>
+        <v>14136</v>
       </c>
       <c r="E113">
-        <v>150033070</v>
+        <v>151267374</v>
       </c>
       <c r="F113" t="s">
         <v>13</v>
@@ -5090,13 +5090,13 @@
         <v>12</v>
       </c>
       <c r="C114">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D114">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E114">
-        <v>530844</v>
+        <v>537874</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
@@ -5125,13 +5125,13 @@
         <v>12</v>
       </c>
       <c r="C115">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D115">
         <v>21</v>
       </c>
       <c r="E115">
-        <v>477132</v>
+        <v>492230</v>
       </c>
       <c r="F115" t="s">
         <v>13</v>
@@ -5160,13 +5160,13 @@
         <v>12</v>
       </c>
       <c r="C116">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D116">
         <v>81</v>
       </c>
       <c r="E116">
-        <v>4431604</v>
+        <v>4439315</v>
       </c>
       <c r="F116" t="s">
         <v>13</v>
@@ -5195,13 +5195,13 @@
         <v>12</v>
       </c>
       <c r="C117">
-        <v>30700</v>
+        <v>30902</v>
       </c>
       <c r="D117">
-        <v>6082</v>
+        <v>6084</v>
       </c>
       <c r="E117">
-        <v>207144490</v>
+        <v>209459666</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
@@ -5230,13 +5230,13 @@
         <v>12</v>
       </c>
       <c r="C118">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D118">
         <v>47</v>
       </c>
       <c r="E118">
-        <v>8962285</v>
+        <v>9373972</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
@@ -5265,13 +5265,13 @@
         <v>12</v>
       </c>
       <c r="C119">
-        <v>10941</v>
+        <v>10980</v>
       </c>
       <c r="D119">
         <v>2189</v>
       </c>
       <c r="E119">
-        <v>100048045</v>
+        <v>100662355</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
@@ -5335,13 +5335,13 @@
         <v>12</v>
       </c>
       <c r="C121">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="D121">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E121">
-        <v>2332506</v>
+        <v>2393802</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
@@ -5405,13 +5405,13 @@
         <v>12</v>
       </c>
       <c r="C123">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="D123">
         <v>262</v>
       </c>
       <c r="E123">
-        <v>6873449</v>
+        <v>6896684</v>
       </c>
       <c r="F123" t="s">
         <v>13</v>
@@ -5440,13 +5440,13 @@
         <v>12</v>
       </c>
       <c r="C124">
-        <v>30740</v>
+        <v>30816</v>
       </c>
       <c r="D124">
         <v>7658</v>
       </c>
       <c r="E124">
-        <v>51014286</v>
+        <v>51194151</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
@@ -5545,13 +5545,13 @@
         <v>12</v>
       </c>
       <c r="C127">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D127">
         <v>30</v>
       </c>
       <c r="E127">
-        <v>820529</v>
+        <v>830529</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -5580,13 +5580,13 @@
         <v>12</v>
       </c>
       <c r="C128">
-        <v>18306</v>
+        <v>18378</v>
       </c>
       <c r="D128">
         <v>4152</v>
       </c>
       <c r="E128">
-        <v>86534240</v>
+        <v>87131229</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -5650,13 +5650,13 @@
         <v>12</v>
       </c>
       <c r="C130">
-        <v>5870</v>
+        <v>5880</v>
       </c>
       <c r="D130">
         <v>1280</v>
       </c>
       <c r="E130">
-        <v>30727878</v>
+        <v>30829685</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
@@ -5720,13 +5720,13 @@
         <v>12</v>
       </c>
       <c r="C132">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="D132">
         <v>303</v>
       </c>
       <c r="E132">
-        <v>3854844</v>
+        <v>3904844</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -5755,13 +5755,13 @@
         <v>12</v>
       </c>
       <c r="C133">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="D133">
         <v>211</v>
       </c>
       <c r="E133">
-        <v>4336688</v>
+        <v>4379690</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
@@ -5790,13 +5790,13 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <v>26571</v>
+        <v>26676</v>
       </c>
       <c r="D134">
-        <v>6597</v>
+        <v>6600</v>
       </c>
       <c r="E134">
-        <v>45578608</v>
+        <v>45843037</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
@@ -5895,13 +5895,13 @@
         <v>12</v>
       </c>
       <c r="C137">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D137">
         <v>28</v>
       </c>
       <c r="E137">
-        <v>701253</v>
+        <v>711253</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
@@ -5930,13 +5930,13 @@
         <v>12</v>
       </c>
       <c r="C138">
-        <v>14129</v>
+        <v>14202</v>
       </c>
       <c r="D138">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="E138">
-        <v>63054052</v>
+        <v>63766164</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -6000,13 +6000,13 @@
         <v>12</v>
       </c>
       <c r="C140">
-        <v>5095</v>
+        <v>5122</v>
       </c>
       <c r="D140">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="E140">
-        <v>23643485</v>
+        <v>23969839</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -6105,13 +6105,13 @@
         <v>12</v>
       </c>
       <c r="C143">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="D143">
         <v>222</v>
       </c>
       <c r="E143">
-        <v>4494835</v>
+        <v>4527141</v>
       </c>
       <c r="F143" t="s">
         <v>14</v>
@@ -6140,13 +6140,13 @@
         <v>12</v>
       </c>
       <c r="C144">
-        <v>11653</v>
+        <v>11680</v>
       </c>
       <c r="D144">
         <v>2939</v>
       </c>
       <c r="E144">
-        <v>20354064</v>
+        <v>20444261</v>
       </c>
       <c r="F144" t="s">
         <v>14</v>
@@ -6245,13 +6245,13 @@
         <v>12</v>
       </c>
       <c r="C147">
-        <v>4332</v>
+        <v>4357</v>
       </c>
       <c r="D147">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E147">
-        <v>17233547</v>
+        <v>17464533</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -6315,13 +6315,13 @@
         <v>12</v>
       </c>
       <c r="C149">
-        <v>1576</v>
+        <v>1581</v>
       </c>
       <c r="D149">
         <v>379</v>
       </c>
       <c r="E149">
-        <v>7248640</v>
+        <v>7326442</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
@@ -6350,13 +6350,13 @@
         <v>12</v>
       </c>
       <c r="C150">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D150">
         <v>55</v>
       </c>
       <c r="E150">
-        <v>338220</v>
+        <v>341220</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -6420,13 +6420,13 @@
         <v>12</v>
       </c>
       <c r="C152">
-        <v>15205</v>
+        <v>15266</v>
       </c>
       <c r="D152">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="E152">
-        <v>26870583</v>
+        <v>27064154</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
@@ -6490,13 +6490,13 @@
         <v>12</v>
       </c>
       <c r="C154">
-        <v>6802</v>
+        <v>6842</v>
       </c>
       <c r="D154">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E154">
-        <v>30676927</v>
+        <v>30994529</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
@@ -6560,13 +6560,13 @@
         <v>12</v>
       </c>
       <c r="C156">
-        <v>3505</v>
+        <v>3526</v>
       </c>
       <c r="D156">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E156">
-        <v>16241839</v>
+        <v>16453738</v>
       </c>
       <c r="F156" t="s">
         <v>14</v>
@@ -6595,13 +6595,13 @@
         <v>12</v>
       </c>
       <c r="C157">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D157">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E157">
-        <v>1248925</v>
+        <v>1266717</v>
       </c>
       <c r="F157" t="s">
         <v>14</v>
@@ -6630,13 +6630,13 @@
         <v>12</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D158">
         <v>3</v>
       </c>
       <c r="E158">
-        <v>24965</v>
+        <v>26465</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
@@ -6665,13 +6665,13 @@
         <v>12</v>
       </c>
       <c r="C159">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D159">
         <v>107</v>
       </c>
       <c r="E159">
-        <v>2689293</v>
+        <v>2695428</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -6700,13 +6700,13 @@
         <v>12</v>
       </c>
       <c r="C160">
-        <v>11514</v>
+        <v>11546</v>
       </c>
       <c r="D160">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="E160">
-        <v>22231359</v>
+        <v>22379523</v>
       </c>
       <c r="F160" t="s">
         <v>14</v>
@@ -6735,13 +6735,13 @@
         <v>12</v>
       </c>
       <c r="C161">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D161">
         <v>27</v>
       </c>
       <c r="E161">
-        <v>774675</v>
+        <v>786786</v>
       </c>
       <c r="F161" t="s">
         <v>14</v>
@@ -6770,13 +6770,13 @@
         <v>12</v>
       </c>
       <c r="C162">
-        <v>4610</v>
+        <v>4646</v>
       </c>
       <c r="D162">
         <v>1049</v>
       </c>
       <c r="E162">
-        <v>19843232</v>
+        <v>20124628</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -6840,13 +6840,13 @@
         <v>12</v>
       </c>
       <c r="C164">
-        <v>1633</v>
+        <v>1640</v>
       </c>
       <c r="D164">
         <v>368</v>
       </c>
       <c r="E164">
-        <v>7754599</v>
+        <v>7817241</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -6875,13 +6875,13 @@
         <v>12</v>
       </c>
       <c r="C165">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D165">
         <v>124</v>
       </c>
       <c r="E165">
-        <v>1048056</v>
+        <v>1063221</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
@@ -6910,13 +6910,13 @@
         <v>12</v>
       </c>
       <c r="C166">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D166">
         <v>78</v>
       </c>
       <c r="E166">
-        <v>1398530</v>
+        <v>1416262</v>
       </c>
       <c r="F166" t="s">
         <v>14</v>
@@ -6945,13 +6945,13 @@
         <v>12</v>
       </c>
       <c r="C167">
-        <v>33212</v>
+        <v>33308</v>
       </c>
       <c r="D167">
-        <v>8098</v>
+        <v>8101</v>
       </c>
       <c r="E167">
-        <v>62682267</v>
+        <v>62909064</v>
       </c>
       <c r="F167" t="s">
         <v>14</v>
@@ -7050,13 +7050,13 @@
         <v>12</v>
       </c>
       <c r="C170">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D170">
         <v>23</v>
       </c>
       <c r="E170">
-        <v>820818</v>
+        <v>830568</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -7085,13 +7085,13 @@
         <v>12</v>
       </c>
       <c r="C171">
-        <v>15186</v>
+        <v>15251</v>
       </c>
       <c r="D171">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="E171">
-        <v>67708424</v>
+        <v>68166155</v>
       </c>
       <c r="F171" t="s">
         <v>14</v>
@@ -7155,13 +7155,13 @@
         <v>12</v>
       </c>
       <c r="C173">
-        <v>5810</v>
+        <v>5852</v>
       </c>
       <c r="D173">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="E173">
-        <v>28853549</v>
+        <v>29226823</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -7225,13 +7225,13 @@
         <v>12</v>
       </c>
       <c r="C175">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="D175">
         <v>402</v>
       </c>
       <c r="E175">
-        <v>3334737</v>
+        <v>3364409</v>
       </c>
       <c r="F175" t="s">
         <v>14</v>
@@ -7260,13 +7260,13 @@
         <v>12</v>
       </c>
       <c r="C176">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="D176">
         <v>237</v>
       </c>
       <c r="E176">
-        <v>4495167</v>
+        <v>4538250</v>
       </c>
       <c r="F176" t="s">
         <v>14</v>
@@ -7295,13 +7295,13 @@
         <v>12</v>
       </c>
       <c r="C177">
-        <v>6009</v>
+        <v>6029</v>
       </c>
       <c r="D177">
         <v>1509</v>
       </c>
       <c r="E177">
-        <v>10821924</v>
+        <v>10898471</v>
       </c>
       <c r="F177" t="s">
         <v>14</v>
@@ -7365,13 +7365,13 @@
         <v>12</v>
       </c>
       <c r="C179">
-        <v>3530</v>
+        <v>3547</v>
       </c>
       <c r="D179">
         <v>833</v>
       </c>
       <c r="E179">
-        <v>16756557</v>
+        <v>16886430</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -7435,13 +7435,13 @@
         <v>12</v>
       </c>
       <c r="C181">
-        <v>1392</v>
+        <v>1398</v>
       </c>
       <c r="D181">
         <v>315</v>
       </c>
       <c r="E181">
-        <v>5355283</v>
+        <v>5387207</v>
       </c>
       <c r="F181" t="s">
         <v>14</v>
@@ -7505,13 +7505,13 @@
         <v>12</v>
       </c>
       <c r="C183">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D183">
         <v>31</v>
       </c>
       <c r="E183">
-        <v>1023790</v>
+        <v>1033531</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
@@ -7540,13 +7540,13 @@
         <v>12</v>
       </c>
       <c r="C184">
-        <v>17924</v>
+        <v>17969</v>
       </c>
       <c r="D184">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="E184">
-        <v>32175304</v>
+        <v>32320496</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
@@ -7575,13 +7575,13 @@
         <v>12</v>
       </c>
       <c r="C185">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D185">
         <v>30</v>
       </c>
       <c r="E185">
-        <v>797323</v>
+        <v>816281</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
@@ -7610,13 +7610,13 @@
         <v>12</v>
       </c>
       <c r="C186">
-        <v>7653</v>
+        <v>7699</v>
       </c>
       <c r="D186">
         <v>1784</v>
       </c>
       <c r="E186">
-        <v>32750468</v>
+        <v>33132169</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -7645,13 +7645,13 @@
         <v>12</v>
       </c>
       <c r="C187">
-        <v>3830</v>
+        <v>3837</v>
       </c>
       <c r="D187">
         <v>859</v>
       </c>
       <c r="E187">
-        <v>17138856</v>
+        <v>17184530</v>
       </c>
       <c r="F187" t="s">
         <v>14</v>
@@ -7680,13 +7680,13 @@
         <v>12</v>
       </c>
       <c r="C188">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D188">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E188">
-        <v>3618756</v>
+        <v>3652598</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -7715,13 +7715,13 @@
         <v>12</v>
       </c>
       <c r="C189">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D189">
         <v>116</v>
       </c>
       <c r="E189">
-        <v>1890173</v>
+        <v>1900173</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -7750,13 +7750,13 @@
         <v>12</v>
       </c>
       <c r="C190">
-        <v>32999</v>
+        <v>33092</v>
       </c>
       <c r="D190">
-        <v>8443</v>
+        <v>8445</v>
       </c>
       <c r="E190">
-        <v>65080335</v>
+        <v>65389439</v>
       </c>
       <c r="F190" t="s">
         <v>15</v>
@@ -7820,13 +7820,13 @@
         <v>12</v>
       </c>
       <c r="C192">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D192">
         <v>12</v>
       </c>
       <c r="E192">
-        <v>219439</v>
+        <v>221702</v>
       </c>
       <c r="F192" t="s">
         <v>15</v>
@@ -7855,13 +7855,13 @@
         <v>12</v>
       </c>
       <c r="C193">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="D193">
         <v>118</v>
       </c>
       <c r="E193">
-        <v>4707099</v>
+        <v>4763055</v>
       </c>
       <c r="F193" t="s">
         <v>15</v>
@@ -7890,13 +7890,13 @@
         <v>12</v>
       </c>
       <c r="C194">
-        <v>18216</v>
+        <v>18300</v>
       </c>
       <c r="D194">
-        <v>4155</v>
+        <v>4157</v>
       </c>
       <c r="E194">
-        <v>85404027</v>
+        <v>86182682</v>
       </c>
       <c r="F194" t="s">
         <v>15</v>
@@ -7960,13 +7960,13 @@
         <v>12</v>
       </c>
       <c r="C196">
-        <v>3291</v>
+        <v>3312</v>
       </c>
       <c r="D196">
         <v>743</v>
       </c>
       <c r="E196">
-        <v>19539380</v>
+        <v>19774623</v>
       </c>
       <c r="F196" t="s">
         <v>15</v>
@@ -7995,13 +7995,13 @@
         <v>12</v>
       </c>
       <c r="C197">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D197">
         <v>242</v>
       </c>
       <c r="E197">
-        <v>1598468</v>
+        <v>1604830</v>
       </c>
       <c r="F197" t="s">
         <v>15</v>
@@ -8030,13 +8030,13 @@
         <v>12</v>
       </c>
       <c r="C198">
-        <v>1309</v>
+        <v>1320</v>
       </c>
       <c r="D198">
         <v>253</v>
       </c>
       <c r="E198">
-        <v>4886877</v>
+        <v>4954182</v>
       </c>
       <c r="F198" t="s">
         <v>15</v>
@@ -8065,13 +8065,13 @@
         <v>12</v>
       </c>
       <c r="C199">
-        <v>49404</v>
+        <v>49566</v>
       </c>
       <c r="D199">
-        <v>13118</v>
+        <v>13121</v>
       </c>
       <c r="E199">
-        <v>96468834</v>
+        <v>97008486</v>
       </c>
       <c r="F199" t="s">
         <v>15</v>
@@ -8170,13 +8170,13 @@
         <v>12</v>
       </c>
       <c r="C202">
-        <v>1247</v>
+        <v>1261</v>
       </c>
       <c r="D202">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E202">
-        <v>8350320</v>
+        <v>8508913</v>
       </c>
       <c r="F202" t="s">
         <v>15</v>
@@ -8205,13 +8205,13 @@
         <v>12</v>
       </c>
       <c r="C203">
-        <v>25127</v>
+        <v>25261</v>
       </c>
       <c r="D203">
-        <v>5671</v>
+        <v>5672</v>
       </c>
       <c r="E203">
-        <v>120613971</v>
+        <v>121744249</v>
       </c>
       <c r="F203" t="s">
         <v>15</v>
@@ -8275,13 +8275,13 @@
         <v>12</v>
       </c>
       <c r="C205">
-        <v>7109</v>
+        <v>7154</v>
       </c>
       <c r="D205">
         <v>1560</v>
       </c>
       <c r="E205">
-        <v>42759711</v>
+        <v>43256479</v>
       </c>
       <c r="F205" t="s">
         <v>15</v>
@@ -8345,13 +8345,13 @@
         <v>12</v>
       </c>
       <c r="C207">
-        <v>1811</v>
+        <v>1824</v>
       </c>
       <c r="D207">
         <v>390</v>
       </c>
       <c r="E207">
-        <v>7878488</v>
+        <v>8137704</v>
       </c>
       <c r="F207" t="s">
         <v>15</v>
@@ -8380,13 +8380,13 @@
         <v>12</v>
       </c>
       <c r="C208">
-        <v>55621</v>
+        <v>55753</v>
       </c>
       <c r="D208">
-        <v>14353</v>
+        <v>14358</v>
       </c>
       <c r="E208">
-        <v>98272984</v>
+        <v>98739984</v>
       </c>
       <c r="F208" t="s">
         <v>15</v>
@@ -8485,13 +8485,13 @@
         <v>12</v>
       </c>
       <c r="C211">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="D211">
         <v>143</v>
       </c>
       <c r="E211">
-        <v>5278023</v>
+        <v>5346498</v>
       </c>
       <c r="F211" t="s">
         <v>15</v>
@@ -8520,13 +8520,13 @@
         <v>12</v>
       </c>
       <c r="C212">
-        <v>35590</v>
+        <v>35749</v>
       </c>
       <c r="D212">
-        <v>8171</v>
+        <v>8173</v>
       </c>
       <c r="E212">
-        <v>174352980</v>
+        <v>176176566</v>
       </c>
       <c r="F212" t="s">
         <v>15</v>
@@ -8625,13 +8625,13 @@
         <v>12</v>
       </c>
       <c r="C215">
-        <v>7039</v>
+        <v>7077</v>
       </c>
       <c r="D215">
         <v>1628</v>
       </c>
       <c r="E215">
-        <v>40960284</v>
+        <v>41421142</v>
       </c>
       <c r="F215" t="s">
         <v>15</v>
@@ -8695,13 +8695,13 @@
         <v>12</v>
       </c>
       <c r="C217">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D217">
         <v>184</v>
       </c>
       <c r="E217">
-        <v>1572488</v>
+        <v>1581256</v>
       </c>
       <c r="F217" t="s">
         <v>15</v>
@@ -8730,13 +8730,13 @@
         <v>12</v>
       </c>
       <c r="C218">
-        <v>2484</v>
+        <v>2498</v>
       </c>
       <c r="D218">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E218">
-        <v>10579566</v>
+        <v>10685035</v>
       </c>
       <c r="F218" t="s">
         <v>15</v>
@@ -8765,13 +8765,13 @@
         <v>12</v>
       </c>
       <c r="C219">
-        <v>46997</v>
+        <v>47144</v>
       </c>
       <c r="D219">
-        <v>12025</v>
+        <v>12027</v>
       </c>
       <c r="E219">
-        <v>87427320</v>
+        <v>87931393</v>
       </c>
       <c r="F219" t="s">
         <v>15</v>
@@ -8835,13 +8835,13 @@
         <v>12</v>
       </c>
       <c r="C221">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D221">
         <v>15</v>
       </c>
       <c r="E221">
-        <v>304090</v>
+        <v>309357</v>
       </c>
       <c r="F221" t="s">
         <v>15</v>
@@ -8870,13 +8870,13 @@
         <v>12</v>
       </c>
       <c r="C222">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="D222">
         <v>164</v>
       </c>
       <c r="E222">
-        <v>7196768</v>
+        <v>7279278</v>
       </c>
       <c r="F222" t="s">
         <v>15</v>
@@ -8940,13 +8940,13 @@
         <v>12</v>
       </c>
       <c r="C224">
-        <v>26952</v>
+        <v>27104</v>
       </c>
       <c r="D224">
-        <v>6060</v>
+        <v>6062</v>
       </c>
       <c r="E224">
-        <v>128410226</v>
+        <v>129936665</v>
       </c>
       <c r="F224" t="s">
         <v>15</v>
@@ -9010,13 +9010,13 @@
         <v>12</v>
       </c>
       <c r="C226">
-        <v>6658</v>
+        <v>6688</v>
       </c>
       <c r="D226">
         <v>1492</v>
       </c>
       <c r="E226">
-        <v>36732119</v>
+        <v>37185476</v>
       </c>
       <c r="F226" t="s">
         <v>15</v>
@@ -9045,13 +9045,13 @@
         <v>12</v>
       </c>
       <c r="C227">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="D227">
         <v>234</v>
       </c>
       <c r="E227">
-        <v>1828800</v>
+        <v>1867296</v>
       </c>
       <c r="F227" t="s">
         <v>15</v>
@@ -9080,13 +9080,13 @@
         <v>12</v>
       </c>
       <c r="C228">
-        <v>1533</v>
+        <v>1544</v>
       </c>
       <c r="D228">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E228">
-        <v>6364327</v>
+        <v>6436508</v>
       </c>
       <c r="F228" t="s">
         <v>15</v>
@@ -9115,13 +9115,13 @@
         <v>12</v>
       </c>
       <c r="C229">
-        <v>15213</v>
+        <v>15241</v>
       </c>
       <c r="D229">
         <v>3878</v>
       </c>
       <c r="E229">
-        <v>28967195</v>
+        <v>29031677</v>
       </c>
       <c r="F229" t="s">
         <v>16</v>
@@ -9150,13 +9150,13 @@
         <v>12</v>
       </c>
       <c r="C230">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D230">
         <v>30</v>
       </c>
       <c r="E230">
-        <v>748502</v>
+        <v>749498</v>
       </c>
       <c r="F230" t="s">
         <v>16</v>
@@ -9185,13 +9185,13 @@
         <v>12</v>
       </c>
       <c r="C231">
-        <v>6000</v>
+        <v>6028</v>
       </c>
       <c r="D231">
         <v>1435</v>
       </c>
       <c r="E231">
-        <v>24757706</v>
+        <v>24942705</v>
       </c>
       <c r="F231" t="s">
         <v>16</v>
@@ -9255,13 +9255,13 @@
         <v>12</v>
       </c>
       <c r="C233">
-        <v>2412</v>
+        <v>2418</v>
       </c>
       <c r="D233">
         <v>557</v>
       </c>
       <c r="E233">
-        <v>10784814</v>
+        <v>10796259</v>
       </c>
       <c r="F233" t="s">
         <v>16</v>
@@ -9290,13 +9290,13 @@
         <v>12</v>
       </c>
       <c r="C234">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D234">
         <v>183</v>
       </c>
       <c r="E234">
-        <v>2176855</v>
+        <v>2221342</v>
       </c>
       <c r="F234" t="s">
         <v>16</v>
@@ -9325,13 +9325,13 @@
         <v>12</v>
       </c>
       <c r="C235">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D235">
         <v>87</v>
       </c>
       <c r="E235">
-        <v>1186896</v>
+        <v>1188396</v>
       </c>
       <c r="F235" t="s">
         <v>16</v>
@@ -9360,13 +9360,13 @@
         <v>12</v>
       </c>
       <c r="C236">
-        <v>18671</v>
+        <v>18716</v>
       </c>
       <c r="D236">
         <v>4813</v>
       </c>
       <c r="E236">
-        <v>34008946</v>
+        <v>34175768</v>
       </c>
       <c r="F236" t="s">
         <v>16</v>
@@ -9465,13 +9465,13 @@
         <v>12</v>
       </c>
       <c r="C239">
-        <v>8706</v>
+        <v>8730</v>
       </c>
       <c r="D239">
         <v>2217</v>
       </c>
       <c r="E239">
-        <v>35078881</v>
+        <v>35354218</v>
       </c>
       <c r="F239" t="s">
         <v>16</v>
@@ -9500,13 +9500,13 @@
         <v>12</v>
       </c>
       <c r="C240">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D240">
         <v>4</v>
       </c>
       <c r="E240">
-        <v>217415</v>
+        <v>230846</v>
       </c>
       <c r="F240" t="s">
         <v>16</v>
@@ -9535,13 +9535,13 @@
         <v>12</v>
       </c>
       <c r="C241">
-        <v>4791</v>
+        <v>4800</v>
       </c>
       <c r="D241">
         <v>1118</v>
       </c>
       <c r="E241">
-        <v>18218326</v>
+        <v>18322571</v>
       </c>
       <c r="F241" t="s">
         <v>16</v>
@@ -9605,13 +9605,13 @@
         <v>12</v>
       </c>
       <c r="C243">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D243">
         <v>113</v>
       </c>
       <c r="E243">
-        <v>1451213</v>
+        <v>1460980</v>
       </c>
       <c r="F243" t="s">
         <v>16</v>
@@ -9640,13 +9640,13 @@
         <v>12</v>
       </c>
       <c r="C244">
-        <v>11261</v>
+        <v>11290</v>
       </c>
       <c r="D244">
         <v>2717</v>
       </c>
       <c r="E244">
-        <v>20869436</v>
+        <v>20940754</v>
       </c>
       <c r="F244" t="s">
         <v>16</v>
@@ -9675,13 +9675,13 @@
         <v>12</v>
       </c>
       <c r="C245">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D245">
         <v>3</v>
       </c>
       <c r="E245">
-        <v>31987</v>
+        <v>33900</v>
       </c>
       <c r="F245" t="s">
         <v>16</v>
@@ -9710,13 +9710,13 @@
         <v>12</v>
       </c>
       <c r="C246">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D246">
         <v>28</v>
       </c>
       <c r="E246">
-        <v>689174</v>
+        <v>694746</v>
       </c>
       <c r="F246" t="s">
         <v>16</v>
@@ -9745,13 +9745,13 @@
         <v>12</v>
       </c>
       <c r="C247">
-        <v>4431</v>
+        <v>4460</v>
       </c>
       <c r="D247">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E247">
-        <v>19205328</v>
+        <v>19427312</v>
       </c>
       <c r="F247" t="s">
         <v>16</v>
@@ -9780,13 +9780,13 @@
         <v>12</v>
       </c>
       <c r="C248">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D248">
         <v>5</v>
       </c>
       <c r="E248">
-        <v>595734</v>
+        <v>710516</v>
       </c>
       <c r="F248" t="s">
         <v>16</v>
@@ -9815,13 +9815,13 @@
         <v>12</v>
       </c>
       <c r="C249">
-        <v>1805</v>
+        <v>1820</v>
       </c>
       <c r="D249">
         <v>384</v>
       </c>
       <c r="E249">
-        <v>8671115</v>
+        <v>8786207</v>
       </c>
       <c r="F249" t="s">
         <v>16</v>
@@ -9850,13 +9850,13 @@
         <v>12</v>
       </c>
       <c r="C250">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D250">
         <v>94</v>
       </c>
       <c r="E250">
-        <v>517033</v>
+        <v>518533</v>
       </c>
       <c r="F250" t="s">
         <v>16</v>
@@ -9885,13 +9885,13 @@
         <v>12</v>
       </c>
       <c r="C251">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D251">
         <v>94</v>
       </c>
       <c r="E251">
-        <v>1910913</v>
+        <v>1911653</v>
       </c>
       <c r="F251" t="s">
         <v>16</v>
@@ -9920,13 +9920,13 @@
         <v>12</v>
       </c>
       <c r="C252">
-        <v>37232</v>
+        <v>37347</v>
       </c>
       <c r="D252">
         <v>9290</v>
       </c>
       <c r="E252">
-        <v>64043364</v>
+        <v>64330324</v>
       </c>
       <c r="F252" t="s">
         <v>16</v>
@@ -10025,13 +10025,13 @@
         <v>12</v>
       </c>
       <c r="C255">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D255">
         <v>62</v>
       </c>
       <c r="E255">
-        <v>2320609</v>
+        <v>2330609</v>
       </c>
       <c r="F255" t="s">
         <v>16</v>
@@ -10060,13 +10060,13 @@
         <v>12</v>
       </c>
       <c r="C256">
-        <v>18813</v>
+        <v>18883</v>
       </c>
       <c r="D256">
         <v>4154</v>
       </c>
       <c r="E256">
-        <v>83248649</v>
+        <v>83876210</v>
       </c>
       <c r="F256" t="s">
         <v>16</v>
@@ -10165,13 +10165,13 @@
         <v>12</v>
       </c>
       <c r="C259">
-        <v>6422</v>
+        <v>6441</v>
       </c>
       <c r="D259">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E259">
-        <v>30842500</v>
+        <v>31018856</v>
       </c>
       <c r="F259" t="s">
         <v>16</v>
@@ -10200,13 +10200,13 @@
         <v>12</v>
       </c>
       <c r="C260">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="D260">
         <v>339</v>
       </c>
       <c r="E260">
-        <v>5287505</v>
+        <v>5319660</v>
       </c>
       <c r="F260" t="s">
         <v>16</v>
@@ -10270,13 +10270,13 @@
         <v>12</v>
       </c>
       <c r="C262">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="D262">
         <v>286</v>
       </c>
       <c r="E262">
-        <v>5089329</v>
+        <v>5098696</v>
       </c>
       <c r="F262" t="s">
         <v>16</v>
@@ -10340,13 +10340,13 @@
         <v>12</v>
       </c>
       <c r="C264">
-        <v>31368</v>
+        <v>31449</v>
       </c>
       <c r="D264">
-        <v>8068</v>
+        <v>8070</v>
       </c>
       <c r="E264">
-        <v>53840866</v>
+        <v>54064945</v>
       </c>
       <c r="F264" t="s">
         <v>16</v>
@@ -10410,13 +10410,13 @@
         <v>12</v>
       </c>
       <c r="C266">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D266">
         <v>61</v>
       </c>
       <c r="E266">
-        <v>1717943</v>
+        <v>1744111</v>
       </c>
       <c r="F266" t="s">
         <v>16</v>
@@ -10445,13 +10445,13 @@
         <v>12</v>
       </c>
       <c r="C267">
-        <v>15930</v>
+        <v>15986</v>
       </c>
       <c r="D267">
-        <v>3823</v>
+        <v>3825</v>
       </c>
       <c r="E267">
-        <v>69528863</v>
+        <v>70034353</v>
       </c>
       <c r="F267" t="s">
         <v>16</v>
@@ -10515,13 +10515,13 @@
         <v>12</v>
       </c>
       <c r="C269">
-        <v>7493</v>
+        <v>7514</v>
       </c>
       <c r="D269">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="E269">
-        <v>31022971</v>
+        <v>31203330</v>
       </c>
       <c r="F269" t="s">
         <v>16</v>
@@ -10585,13 +10585,13 @@
         <v>12</v>
       </c>
       <c r="C271">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="D271">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E271">
-        <v>4392966</v>
+        <v>4423580</v>
       </c>
       <c r="F271" t="s">
         <v>16</v>
@@ -10620,13 +10620,13 @@
         <v>12</v>
       </c>
       <c r="C272">
-        <v>18076</v>
+        <v>18124</v>
       </c>
       <c r="D272">
         <v>4563</v>
       </c>
       <c r="E272">
-        <v>34259462</v>
+        <v>34378610</v>
       </c>
       <c r="F272" t="s">
         <v>16</v>
@@ -10690,13 +10690,13 @@
         <v>12</v>
       </c>
       <c r="C274">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D274">
         <v>34</v>
       </c>
       <c r="E274">
-        <v>1108628</v>
+        <v>1118628</v>
       </c>
       <c r="F274" t="s">
         <v>16</v>
@@ -10725,13 +10725,13 @@
         <v>12</v>
       </c>
       <c r="C275">
-        <v>8745</v>
+        <v>8774</v>
       </c>
       <c r="D275">
         <v>2106</v>
       </c>
       <c r="E275">
-        <v>37476177</v>
+        <v>37804157</v>
       </c>
       <c r="F275" t="s">
         <v>16</v>
@@ -10795,13 +10795,13 @@
         <v>12</v>
       </c>
       <c r="C277">
-        <v>3088</v>
+        <v>3103</v>
       </c>
       <c r="D277">
         <v>695</v>
       </c>
       <c r="E277">
-        <v>15714086</v>
+        <v>15903822</v>
       </c>
       <c r="F277" t="s">
         <v>16</v>
@@ -10830,13 +10830,13 @@
         <v>12</v>
       </c>
       <c r="C278">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D278">
         <v>146</v>
       </c>
       <c r="E278">
-        <v>1581683</v>
+        <v>1591683</v>
       </c>
       <c r="F278" t="s">
         <v>16</v>
@@ -10900,13 +10900,13 @@
         <v>12</v>
       </c>
       <c r="C280">
-        <v>19601</v>
+        <v>19635</v>
       </c>
       <c r="D280">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="E280">
-        <v>42365602</v>
+        <v>42499462</v>
       </c>
       <c r="F280" t="s">
         <v>17</v>
@@ -11040,13 +11040,13 @@
         <v>12</v>
       </c>
       <c r="C284">
-        <v>11834</v>
+        <v>11893</v>
       </c>
       <c r="D284">
         <v>2277</v>
       </c>
       <c r="E284">
-        <v>71547870</v>
+        <v>72217510</v>
       </c>
       <c r="F284" t="s">
         <v>17</v>
@@ -11110,13 +11110,13 @@
         <v>12</v>
       </c>
       <c r="C286">
-        <v>7215</v>
+        <v>7236</v>
       </c>
       <c r="D286">
         <v>1442</v>
       </c>
       <c r="E286">
-        <v>39149012</v>
+        <v>39290757</v>
       </c>
       <c r="F286" t="s">
         <v>17</v>
@@ -11145,13 +11145,13 @@
         <v>12</v>
       </c>
       <c r="C287">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D287">
         <v>122</v>
       </c>
       <c r="E287">
-        <v>1569678</v>
+        <v>1583783</v>
       </c>
       <c r="F287" t="s">
         <v>17</v>
@@ -11180,13 +11180,13 @@
         <v>12</v>
       </c>
       <c r="C288">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D288">
         <v>64</v>
       </c>
       <c r="E288">
-        <v>1219893</v>
+        <v>1232949</v>
       </c>
       <c r="F288" t="s">
         <v>17</v>
@@ -11215,13 +11215,13 @@
         <v>12</v>
       </c>
       <c r="C289">
-        <v>23331</v>
+        <v>23384</v>
       </c>
       <c r="D289">
-        <v>4926</v>
+        <v>4927</v>
       </c>
       <c r="E289">
-        <v>45983317</v>
+        <v>46142353</v>
       </c>
       <c r="F289" t="s">
         <v>17</v>
@@ -11320,13 +11320,13 @@
         <v>12</v>
       </c>
       <c r="C292">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D292">
         <v>17</v>
       </c>
       <c r="E292">
-        <v>534600</v>
+        <v>548271</v>
       </c>
       <c r="F292" t="s">
         <v>17</v>
@@ -11355,13 +11355,13 @@
         <v>12</v>
       </c>
       <c r="C293">
-        <v>10637</v>
+        <v>10671</v>
       </c>
       <c r="D293">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="E293">
-        <v>56224182</v>
+        <v>56539493</v>
       </c>
       <c r="F293" t="s">
         <v>17</v>
@@ -11425,13 +11425,13 @@
         <v>12</v>
       </c>
       <c r="C295">
-        <v>7509</v>
+        <v>7544</v>
       </c>
       <c r="D295">
         <v>1421</v>
       </c>
       <c r="E295">
-        <v>37369882</v>
+        <v>37653608</v>
       </c>
       <c r="F295" t="s">
         <v>17</v>
@@ -11460,13 +11460,13 @@
         <v>12</v>
       </c>
       <c r="C296">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D296">
         <v>138</v>
       </c>
       <c r="E296">
-        <v>1787679</v>
+        <v>1792462</v>
       </c>
       <c r="F296" t="s">
         <v>17</v>
@@ -11495,13 +11495,13 @@
         <v>12</v>
       </c>
       <c r="C297">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D297">
         <v>89</v>
       </c>
       <c r="E297">
-        <v>1413845</v>
+        <v>1426269</v>
       </c>
       <c r="F297" t="s">
         <v>17</v>
@@ -11530,13 +11530,13 @@
         <v>12</v>
       </c>
       <c r="C298">
-        <v>13286</v>
+        <v>13317</v>
       </c>
       <c r="D298">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="E298">
-        <v>24550549</v>
+        <v>24631476</v>
       </c>
       <c r="F298" t="s">
         <v>18</v>
@@ -11635,13 +11635,13 @@
         <v>12</v>
       </c>
       <c r="C301">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D301">
         <v>21</v>
       </c>
       <c r="E301">
-        <v>634778</v>
+        <v>637259</v>
       </c>
       <c r="F301" t="s">
         <v>18</v>
@@ -11670,13 +11670,13 @@
         <v>12</v>
       </c>
       <c r="C302">
-        <v>5036</v>
+        <v>5053</v>
       </c>
       <c r="D302">
         <v>1231</v>
       </c>
       <c r="E302">
-        <v>20417782</v>
+        <v>20563555</v>
       </c>
       <c r="F302" t="s">
         <v>18</v>
@@ -11740,13 +11740,13 @@
         <v>12</v>
       </c>
       <c r="C304">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="D304">
         <v>465</v>
       </c>
       <c r="E304">
-        <v>8246664</v>
+        <v>8270242</v>
       </c>
       <c r="F304" t="s">
         <v>18</v>
@@ -11810,13 +11810,13 @@
         <v>12</v>
       </c>
       <c r="C306">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D306">
         <v>83</v>
       </c>
       <c r="E306">
-        <v>1606915</v>
+        <v>1609597</v>
       </c>
       <c r="F306" t="s">
         <v>18</v>
@@ -11845,13 +11845,13 @@
         <v>12</v>
       </c>
       <c r="C307">
-        <v>17536</v>
+        <v>17607</v>
       </c>
       <c r="D307">
-        <v>4363</v>
+        <v>4365</v>
       </c>
       <c r="E307">
-        <v>39806411</v>
+        <v>40148724</v>
       </c>
       <c r="F307" t="s">
         <v>18</v>
@@ -11950,13 +11950,13 @@
         <v>12</v>
       </c>
       <c r="C310">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D310">
         <v>60</v>
       </c>
       <c r="E310">
-        <v>2398651</v>
+        <v>2428651</v>
       </c>
       <c r="F310" t="s">
         <v>18</v>
@@ -11985,13 +11985,13 @@
         <v>12</v>
       </c>
       <c r="C311">
-        <v>7742</v>
+        <v>7778</v>
       </c>
       <c r="D311">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="E311">
-        <v>33766431</v>
+        <v>34068945</v>
       </c>
       <c r="F311" t="s">
         <v>18</v>
@@ -12020,13 +12020,13 @@
         <v>12</v>
       </c>
       <c r="C312">
-        <v>3467</v>
+        <v>3481</v>
       </c>
       <c r="D312">
         <v>772</v>
       </c>
       <c r="E312">
-        <v>15531981</v>
+        <v>15626665</v>
       </c>
       <c r="F312" t="s">
         <v>18</v>
@@ -12125,13 +12125,13 @@
         <v>12</v>
       </c>
       <c r="C315">
-        <v>2650</v>
+        <v>2689</v>
       </c>
       <c r="D315">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="E315">
-        <v>18469338</v>
+        <v>18822687</v>
       </c>
       <c r="F315" t="s">
         <v>18</v>
@@ -12160,13 +12160,13 @@
         <v>12</v>
       </c>
       <c r="C316">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D316">
         <v>97</v>
       </c>
       <c r="E316">
-        <v>1584688</v>
+        <v>1614181</v>
       </c>
       <c r="F316" t="s">
         <v>18</v>
@@ -12195,13 +12195,13 @@
         <v>12</v>
       </c>
       <c r="C317">
-        <v>65137</v>
+        <v>65320</v>
       </c>
       <c r="D317">
-        <v>15798</v>
+        <v>15801</v>
       </c>
       <c r="E317">
-        <v>111304323</v>
+        <v>111843606</v>
       </c>
       <c r="F317" t="s">
         <v>18</v>
@@ -12335,13 +12335,13 @@
         <v>12</v>
       </c>
       <c r="C321">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D321">
         <v>26</v>
       </c>
       <c r="E321">
-        <v>859229</v>
+        <v>901771</v>
       </c>
       <c r="F321" t="s">
         <v>18</v>
@@ -12405,13 +12405,13 @@
         <v>12</v>
       </c>
       <c r="C323">
-        <v>39064</v>
+        <v>39204</v>
       </c>
       <c r="D323">
-        <v>8989</v>
+        <v>8991</v>
       </c>
       <c r="E323">
-        <v>176216881</v>
+        <v>177581088</v>
       </c>
       <c r="F323" t="s">
         <v>18</v>
@@ -12440,13 +12440,13 @@
         <v>12</v>
       </c>
       <c r="C324">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D324">
         <v>28</v>
       </c>
       <c r="E324">
-        <v>1900835</v>
+        <v>1911904</v>
       </c>
       <c r="F324" t="s">
         <v>18</v>
@@ -12510,13 +12510,13 @@
         <v>12</v>
       </c>
       <c r="C326">
-        <v>19316</v>
+        <v>19409</v>
       </c>
       <c r="D326">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="E326">
-        <v>96298203</v>
+        <v>97127701</v>
       </c>
       <c r="F326" t="s">
         <v>18</v>
@@ -12580,13 +12580,13 @@
         <v>12</v>
       </c>
       <c r="C328">
-        <v>3731</v>
+        <v>3763</v>
       </c>
       <c r="D328">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E328">
-        <v>16662227</v>
+        <v>16877588</v>
       </c>
       <c r="F328" t="s">
         <v>18</v>
@@ -12615,13 +12615,13 @@
         <v>12</v>
       </c>
       <c r="C329">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="D329">
         <v>433</v>
       </c>
       <c r="E329">
-        <v>8584657</v>
+        <v>8615959</v>
       </c>
       <c r="F329" t="s">
         <v>18</v>
@@ -12650,13 +12650,13 @@
         <v>12</v>
       </c>
       <c r="C330">
-        <v>7639</v>
+        <v>7672</v>
       </c>
       <c r="D330">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="E330">
-        <v>13452068</v>
+        <v>13535627</v>
       </c>
       <c r="F330" t="s">
         <v>18</v>
@@ -12685,13 +12685,13 @@
         <v>12</v>
       </c>
       <c r="C331">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D331">
         <v>12</v>
       </c>
       <c r="E331">
-        <v>259016</v>
+        <v>269016</v>
       </c>
       <c r="F331" t="s">
         <v>18</v>
@@ -12720,13 +12720,13 @@
         <v>12</v>
       </c>
       <c r="C332">
-        <v>3271</v>
+        <v>3285</v>
       </c>
       <c r="D332">
         <v>771</v>
       </c>
       <c r="E332">
-        <v>14000500</v>
+        <v>14132827</v>
       </c>
       <c r="F332" t="s">
         <v>18</v>
@@ -12755,13 +12755,13 @@
         <v>12</v>
       </c>
       <c r="C333">
-        <v>1399</v>
+        <v>1408</v>
       </c>
       <c r="D333">
         <v>332</v>
       </c>
       <c r="E333">
-        <v>6245231</v>
+        <v>6342100</v>
       </c>
       <c r="F333" t="s">
         <v>18</v>
@@ -12860,13 +12860,13 @@
         <v>12</v>
       </c>
       <c r="C336">
-        <v>37245</v>
+        <v>37392</v>
       </c>
       <c r="D336">
-        <v>9335</v>
+        <v>9339</v>
       </c>
       <c r="E336">
-        <v>64831017</v>
+        <v>65213963</v>
       </c>
       <c r="F336" t="s">
         <v>18</v>
@@ -13000,13 +13000,13 @@
         <v>12</v>
       </c>
       <c r="C340">
-        <v>23472</v>
+        <v>23625</v>
       </c>
       <c r="D340">
-        <v>5311</v>
+        <v>5314</v>
       </c>
       <c r="E340">
-        <v>114788212</v>
+        <v>116040698</v>
       </c>
       <c r="F340" t="s">
         <v>18</v>
@@ -13035,13 +13035,13 @@
         <v>12</v>
       </c>
       <c r="C341">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D341">
         <v>20</v>
       </c>
       <c r="E341">
-        <v>2303046</v>
+        <v>2354293</v>
       </c>
       <c r="F341" t="s">
         <v>18</v>
@@ -13105,13 +13105,13 @@
         <v>12</v>
       </c>
       <c r="C343">
-        <v>11744</v>
+        <v>11830</v>
       </c>
       <c r="D343">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="E343">
-        <v>58010109</v>
+        <v>58899055</v>
       </c>
       <c r="F343" t="s">
         <v>18</v>
@@ -13140,13 +13140,13 @@
         <v>12</v>
       </c>
       <c r="C344">
-        <v>2395</v>
+        <v>2426</v>
       </c>
       <c r="D344">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E344">
-        <v>13486041</v>
+        <v>13766484</v>
       </c>
       <c r="F344" t="s">
         <v>18</v>
@@ -13175,13 +13175,13 @@
         <v>12</v>
       </c>
       <c r="C345">
-        <v>1081</v>
+        <v>1094</v>
       </c>
       <c r="D345">
         <v>234</v>
       </c>
       <c r="E345">
-        <v>4701671</v>
+        <v>4787312</v>
       </c>
       <c r="F345" t="s">
         <v>18</v>
@@ -13210,13 +13210,13 @@
         <v>12</v>
       </c>
       <c r="C346">
-        <v>37095</v>
+        <v>37257</v>
       </c>
       <c r="D346">
-        <v>9847</v>
+        <v>9850</v>
       </c>
       <c r="E346">
-        <v>93243308</v>
+        <v>93961748</v>
       </c>
       <c r="F346" t="s">
         <v>18</v>
@@ -13245,13 +13245,13 @@
         <v>12</v>
       </c>
       <c r="C347">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D347">
         <v>66</v>
       </c>
       <c r="E347">
-        <v>1036904</v>
+        <v>1037551</v>
       </c>
       <c r="F347" t="s">
         <v>18</v>
@@ -13315,13 +13315,13 @@
         <v>12</v>
       </c>
       <c r="C349">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D349">
         <v>83</v>
       </c>
       <c r="E349">
-        <v>2098926</v>
+        <v>2126625</v>
       </c>
       <c r="F349" t="s">
         <v>18</v>
@@ -13350,13 +13350,13 @@
         <v>12</v>
       </c>
       <c r="C350">
-        <v>16626</v>
+        <v>16732</v>
       </c>
       <c r="D350">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="E350">
-        <v>76465673</v>
+        <v>77442060</v>
       </c>
       <c r="F350" t="s">
         <v>18</v>
@@ -13455,13 +13455,13 @@
         <v>12</v>
       </c>
       <c r="C353">
-        <v>7052</v>
+        <v>7099</v>
       </c>
       <c r="D353">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="E353">
-        <v>38760111</v>
+        <v>39302319</v>
       </c>
       <c r="F353" t="s">
         <v>18</v>
@@ -13525,13 +13525,13 @@
         <v>12</v>
       </c>
       <c r="C355">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D355">
         <v>126</v>
       </c>
       <c r="E355">
-        <v>6691600</v>
+        <v>6704600</v>
       </c>
       <c r="F355" t="s">
         <v>18</v>
@@ -13560,13 +13560,13 @@
         <v>12</v>
       </c>
       <c r="C356">
-        <v>9409</v>
+        <v>9477</v>
       </c>
       <c r="D356">
         <v>3458</v>
       </c>
       <c r="E356">
-        <v>55841244</v>
+        <v>56325334</v>
       </c>
       <c r="F356" t="s">
         <v>18</v>
@@ -13595,13 +13595,13 @@
         <v>12</v>
       </c>
       <c r="C357">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="D357">
         <v>176</v>
       </c>
       <c r="E357">
-        <v>2717565</v>
+        <v>2774193</v>
       </c>
       <c r="F357" t="s">
         <v>18</v>
@@ -13630,13 +13630,13 @@
         <v>12</v>
       </c>
       <c r="C358">
-        <v>35527</v>
+        <v>35635</v>
       </c>
       <c r="D358">
-        <v>8672</v>
+        <v>8676</v>
       </c>
       <c r="E358">
-        <v>58388837</v>
+        <v>58627303</v>
       </c>
       <c r="F358" t="s">
         <v>18</v>
@@ -13700,13 +13700,13 @@
         <v>12</v>
       </c>
       <c r="C360">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D360">
         <v>27</v>
       </c>
       <c r="E360">
-        <v>667263</v>
+        <v>672196</v>
       </c>
       <c r="F360" t="s">
         <v>18</v>
@@ -13735,13 +13735,13 @@
         <v>12</v>
       </c>
       <c r="C361">
-        <v>15868</v>
+        <v>15926</v>
       </c>
       <c r="D361">
-        <v>3792</v>
+        <v>3794</v>
       </c>
       <c r="E361">
-        <v>66639154</v>
+        <v>67186557</v>
       </c>
       <c r="F361" t="s">
         <v>18</v>
@@ -13770,13 +13770,13 @@
         <v>12</v>
       </c>
       <c r="C362">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D362">
         <v>15</v>
       </c>
       <c r="E362">
-        <v>1135392</v>
+        <v>1192034</v>
       </c>
       <c r="F362" t="s">
         <v>18</v>
@@ -13805,13 +13805,13 @@
         <v>12</v>
       </c>
       <c r="C363">
-        <v>7043</v>
+        <v>7072</v>
       </c>
       <c r="D363">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="E363">
-        <v>33527488</v>
+        <v>33806521</v>
       </c>
       <c r="F363" t="s">
         <v>18</v>
@@ -13875,13 +13875,13 @@
         <v>12</v>
       </c>
       <c r="C365">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D365">
         <v>98</v>
       </c>
       <c r="E365">
-        <v>585954</v>
+        <v>597454</v>
       </c>
       <c r="F365" t="s">
         <v>18</v>
@@ -13910,13 +13910,13 @@
         <v>12</v>
       </c>
       <c r="C366">
-        <v>1182</v>
+        <v>1192</v>
       </c>
       <c r="D366">
         <v>240</v>
       </c>
       <c r="E366">
-        <v>4153729</v>
+        <v>4235329</v>
       </c>
       <c r="F366" t="s">
         <v>18</v>
@@ -13945,13 +13945,13 @@
         <v>12</v>
       </c>
       <c r="C367">
-        <v>8232</v>
+        <v>8270</v>
       </c>
       <c r="D367">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="E367">
-        <v>15440063</v>
+        <v>15570300</v>
       </c>
       <c r="F367" t="s">
         <v>18</v>
@@ -14015,13 +14015,13 @@
         <v>12</v>
       </c>
       <c r="C369">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D369">
         <v>17</v>
       </c>
       <c r="E369">
-        <v>923633</v>
+        <v>938027</v>
       </c>
       <c r="F369" t="s">
         <v>18</v>
@@ -14050,13 +14050,13 @@
         <v>12</v>
       </c>
       <c r="C370">
-        <v>3028</v>
+        <v>3049</v>
       </c>
       <c r="D370">
         <v>722</v>
       </c>
       <c r="E370">
-        <v>12882469</v>
+        <v>13037194</v>
       </c>
       <c r="F370" t="s">
         <v>18</v>
@@ -14085,13 +14085,13 @@
         <v>12</v>
       </c>
       <c r="C371">
-        <v>1341</v>
+        <v>1348</v>
       </c>
       <c r="D371">
         <v>319</v>
       </c>
       <c r="E371">
-        <v>5386818</v>
+        <v>5433525</v>
       </c>
       <c r="F371" t="s">
         <v>18</v>
@@ -14120,13 +14120,13 @@
         <v>12</v>
       </c>
       <c r="C372">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D372">
         <v>59</v>
       </c>
       <c r="E372">
-        <v>293244</v>
+        <v>296244</v>
       </c>
       <c r="F372" t="s">
         <v>18</v>
@@ -14155,13 +14155,13 @@
         <v>12</v>
       </c>
       <c r="C373">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D373">
         <v>42</v>
       </c>
       <c r="E373">
-        <v>1280159</v>
+        <v>1307994</v>
       </c>
       <c r="F373" t="s">
         <v>18</v>
@@ -14190,13 +14190,13 @@
         <v>12</v>
       </c>
       <c r="C374">
-        <v>42305</v>
+        <v>42424</v>
       </c>
       <c r="D374">
-        <v>10665</v>
+        <v>10666</v>
       </c>
       <c r="E374">
-        <v>73095541</v>
+        <v>73495253</v>
       </c>
       <c r="F374" t="s">
         <v>18</v>
@@ -14295,13 +14295,13 @@
         <v>12</v>
       </c>
       <c r="C377">
-        <v>20987</v>
+        <v>21104</v>
       </c>
       <c r="D377">
         <v>5049</v>
       </c>
       <c r="E377">
-        <v>96283794</v>
+        <v>97463460</v>
       </c>
       <c r="F377" t="s">
         <v>18</v>
@@ -14365,13 +14365,13 @@
         <v>12</v>
       </c>
       <c r="C379">
-        <v>14004</v>
+        <v>14049</v>
       </c>
       <c r="D379">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="E379">
-        <v>57823613</v>
+        <v>58192901</v>
       </c>
       <c r="F379" t="s">
         <v>18</v>
@@ -14400,13 +14400,13 @@
         <v>12</v>
       </c>
       <c r="C380">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D380">
         <v>130</v>
       </c>
       <c r="E380">
-        <v>580809</v>
+        <v>582309</v>
       </c>
       <c r="F380" t="s">
         <v>18</v>
@@ -14435,13 +14435,13 @@
         <v>12</v>
       </c>
       <c r="C381">
-        <v>1076</v>
+        <v>1085</v>
       </c>
       <c r="D381">
         <v>206</v>
       </c>
       <c r="E381">
-        <v>5797598</v>
+        <v>5865029</v>
       </c>
       <c r="F381" t="s">
         <v>18</v>
@@ -14470,13 +14470,13 @@
         <v>12</v>
       </c>
       <c r="C382">
-        <v>22086</v>
+        <v>22146</v>
       </c>
       <c r="D382">
-        <v>5275</v>
+        <v>5276</v>
       </c>
       <c r="E382">
-        <v>39649319</v>
+        <v>39815845</v>
       </c>
       <c r="F382" t="s">
         <v>18</v>
@@ -14540,13 +14540,13 @@
         <v>12</v>
       </c>
       <c r="C384">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D384">
         <v>6</v>
       </c>
       <c r="E384">
-        <v>106309</v>
+        <v>116309</v>
       </c>
       <c r="F384" t="s">
         <v>18</v>
@@ -14610,13 +14610,13 @@
         <v>12</v>
       </c>
       <c r="C386">
-        <v>11787</v>
+        <v>11849</v>
       </c>
       <c r="D386">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E386">
-        <v>49835464</v>
+        <v>50453490</v>
       </c>
       <c r="F386" t="s">
         <v>18</v>
@@ -14680,13 +14680,13 @@
         <v>12</v>
       </c>
       <c r="C388">
-        <v>4461</v>
+        <v>4485</v>
       </c>
       <c r="D388">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E388">
-        <v>20191439</v>
+        <v>20373723</v>
       </c>
       <c r="F388" t="s">
         <v>18</v>
@@ -14750,13 +14750,13 @@
         <v>12</v>
       </c>
       <c r="C390">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="D390">
         <v>130</v>
       </c>
       <c r="E390">
-        <v>1680289</v>
+        <v>1722875</v>
       </c>
       <c r="F390" t="s">
         <v>18</v>
@@ -14785,13 +14785,13 @@
         <v>12</v>
       </c>
       <c r="C391">
-        <v>56065</v>
+        <v>56196</v>
       </c>
       <c r="D391">
-        <v>12162</v>
+        <v>12165</v>
       </c>
       <c r="E391">
-        <v>88014352</v>
+        <v>88302087</v>
       </c>
       <c r="F391" t="s">
         <v>19</v>
@@ -14890,13 +14890,13 @@
         <v>12</v>
       </c>
       <c r="C394">
-        <v>13245</v>
+        <v>13286</v>
       </c>
       <c r="D394">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="E394">
-        <v>34578121</v>
+        <v>34818147</v>
       </c>
       <c r="F394" t="s">
         <v>19</v>
@@ -14960,13 +14960,13 @@
         <v>12</v>
       </c>
       <c r="C396">
-        <v>12411</v>
+        <v>12437</v>
       </c>
       <c r="D396">
         <v>2754</v>
       </c>
       <c r="E396">
-        <v>27241400</v>
+        <v>27318597</v>
       </c>
       <c r="F396" t="s">
         <v>19</v>
@@ -14995,13 +14995,13 @@
         <v>12</v>
       </c>
       <c r="C397">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D397">
         <v>200</v>
       </c>
       <c r="E397">
-        <v>1422259</v>
+        <v>1423576</v>
       </c>
       <c r="F397" t="s">
         <v>19</v>
@@ -15030,13 +15030,13 @@
         <v>12</v>
       </c>
       <c r="C398">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D398">
         <v>191</v>
       </c>
       <c r="E398">
-        <v>1332531</v>
+        <v>1338283</v>
       </c>
       <c r="F398" t="s">
         <v>19</v>
@@ -15065,13 +15065,13 @@
         <v>12</v>
       </c>
       <c r="C399">
-        <v>22524</v>
+        <v>22563</v>
       </c>
       <c r="D399">
         <v>3671</v>
       </c>
       <c r="E399">
-        <v>45571289</v>
+        <v>45628697</v>
       </c>
       <c r="F399" t="s">
         <v>20</v>
@@ -15100,13 +15100,13 @@
         <v>12</v>
       </c>
       <c r="C400">
-        <v>4890</v>
+        <v>4891</v>
       </c>
       <c r="D400">
         <v>889</v>
       </c>
       <c r="E400">
-        <v>12668588</v>
+        <v>12678588</v>
       </c>
       <c r="F400" t="s">
         <v>20</v>
@@ -15170,13 +15170,13 @@
         <v>12</v>
       </c>
       <c r="C402">
-        <v>7109</v>
+        <v>7114</v>
       </c>
       <c r="D402">
         <v>1234</v>
       </c>
       <c r="E402">
-        <v>17103783</v>
+        <v>17136783</v>
       </c>
       <c r="F402" t="s">
         <v>20</v>
@@ -15310,13 +15310,13 @@
         <v>12</v>
       </c>
       <c r="C406">
-        <v>22480</v>
+        <v>22550</v>
       </c>
       <c r="D406">
-        <v>5493</v>
+        <v>5494</v>
       </c>
       <c r="E406">
-        <v>43610836</v>
+        <v>43835782</v>
       </c>
       <c r="F406" t="s">
         <v>21</v>
@@ -15380,13 +15380,13 @@
         <v>12</v>
       </c>
       <c r="C408">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D408">
         <v>48</v>
       </c>
       <c r="E408">
-        <v>1362436</v>
+        <v>1379109</v>
       </c>
       <c r="F408" t="s">
         <v>21</v>
@@ -15415,13 +15415,13 @@
         <v>12</v>
       </c>
       <c r="C409">
-        <v>8642</v>
+        <v>8691</v>
       </c>
       <c r="D409">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="E409">
-        <v>38729115</v>
+        <v>39242421</v>
       </c>
       <c r="F409" t="s">
         <v>21</v>
@@ -15485,13 +15485,13 @@
         <v>12</v>
       </c>
       <c r="C411">
-        <v>4562</v>
+        <v>4586</v>
       </c>
       <c r="D411">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E411">
-        <v>19458199</v>
+        <v>19703539</v>
       </c>
       <c r="F411" t="s">
         <v>21</v>
@@ -15520,13 +15520,13 @@
         <v>12</v>
       </c>
       <c r="C412">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D412">
         <v>19</v>
       </c>
       <c r="E412">
-        <v>600585</v>
+        <v>612052</v>
       </c>
       <c r="F412" t="s">
         <v>21</v>
@@ -15590,13 +15590,13 @@
         <v>12</v>
       </c>
       <c r="C414">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D414">
         <v>108</v>
       </c>
       <c r="E414">
-        <v>1836705</v>
+        <v>1861415</v>
       </c>
       <c r="F414" t="s">
         <v>21</v>
@@ -15625,13 +15625,13 @@
         <v>12</v>
       </c>
       <c r="C415">
-        <v>126361</v>
+        <v>126669</v>
       </c>
       <c r="D415">
-        <v>30393</v>
+        <v>30398</v>
       </c>
       <c r="E415">
-        <v>212038653</v>
+        <v>212811227</v>
       </c>
       <c r="F415" t="s">
         <v>21</v>
@@ -15695,13 +15695,13 @@
         <v>12</v>
       </c>
       <c r="C417">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D417">
         <v>14</v>
       </c>
       <c r="E417">
-        <v>133731</v>
+        <v>137379</v>
       </c>
       <c r="F417" t="s">
         <v>21</v>
@@ -15730,13 +15730,13 @@
         <v>12</v>
       </c>
       <c r="C418">
-        <v>1279</v>
+        <v>1299</v>
       </c>
       <c r="D418">
         <v>206</v>
       </c>
       <c r="E418">
-        <v>7625545</v>
+        <v>7764944</v>
       </c>
       <c r="F418" t="s">
         <v>21</v>
@@ -15765,13 +15765,13 @@
         <v>12</v>
       </c>
       <c r="C419">
-        <v>57637</v>
+        <v>57828</v>
       </c>
       <c r="D419">
-        <v>13053</v>
+        <v>13055</v>
       </c>
       <c r="E419">
-        <v>250018197</v>
+        <v>251503270</v>
       </c>
       <c r="F419" t="s">
         <v>21</v>
@@ -15800,13 +15800,13 @@
         <v>12</v>
       </c>
       <c r="C420">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D420">
         <v>53</v>
       </c>
       <c r="E420">
-        <v>4320887</v>
+        <v>4373090</v>
       </c>
       <c r="F420" t="s">
         <v>21</v>
@@ -15870,13 +15870,13 @@
         <v>12</v>
       </c>
       <c r="C422">
-        <v>32462</v>
+        <v>32601</v>
       </c>
       <c r="D422">
-        <v>6808</v>
+        <v>6812</v>
       </c>
       <c r="E422">
-        <v>144759936</v>
+        <v>145873747</v>
       </c>
       <c r="F422" t="s">
         <v>21</v>
@@ -15905,13 +15905,13 @@
         <v>12</v>
       </c>
       <c r="C423">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="D423">
         <v>272</v>
       </c>
       <c r="E423">
-        <v>1918737</v>
+        <v>1931065</v>
       </c>
       <c r="F423" t="s">
         <v>21</v>
@@ -15940,13 +15940,13 @@
         <v>12</v>
       </c>
       <c r="C424">
-        <v>3442</v>
+        <v>3455</v>
       </c>
       <c r="D424">
         <v>677</v>
       </c>
       <c r="E424">
-        <v>13550362</v>
+        <v>13631338</v>
       </c>
       <c r="F424" t="s">
         <v>21</v>
@@ -16010,13 +16010,13 @@
         <v>12</v>
       </c>
       <c r="C426">
-        <v>37931</v>
+        <v>38016</v>
       </c>
       <c r="D426">
-        <v>9154</v>
+        <v>9156</v>
       </c>
       <c r="E426">
-        <v>65965306</v>
+        <v>66187201</v>
       </c>
       <c r="F426" t="s">
         <v>21</v>
@@ -16080,13 +16080,13 @@
         <v>12</v>
       </c>
       <c r="C428">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D428">
         <v>113</v>
       </c>
       <c r="E428">
-        <v>3971577</v>
+        <v>3998386</v>
       </c>
       <c r="F428" t="s">
         <v>21</v>
@@ -16115,13 +16115,13 @@
         <v>12</v>
       </c>
       <c r="C429">
-        <v>16792</v>
+        <v>16857</v>
       </c>
       <c r="D429">
-        <v>3988</v>
+        <v>3989</v>
       </c>
       <c r="E429">
-        <v>69070630</v>
+        <v>69577841</v>
       </c>
       <c r="F429" t="s">
         <v>21</v>
@@ -16185,13 +16185,13 @@
         <v>12</v>
       </c>
       <c r="C431">
-        <v>11857</v>
+        <v>11901</v>
       </c>
       <c r="D431">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="E431">
-        <v>47337659</v>
+        <v>47660699</v>
       </c>
       <c r="F431" t="s">
         <v>21</v>
@@ -16255,13 +16255,13 @@
         <v>12</v>
       </c>
       <c r="C433">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="D433">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E433">
-        <v>2710043</v>
+        <v>2765772</v>
       </c>
       <c r="F433" t="s">
         <v>21</v>
@@ -16290,13 +16290,13 @@
         <v>12</v>
       </c>
       <c r="C434">
-        <v>63910</v>
+        <v>64076</v>
       </c>
       <c r="D434">
-        <v>15719</v>
+        <v>15722</v>
       </c>
       <c r="E434">
-        <v>111162176</v>
+        <v>111640983</v>
       </c>
       <c r="F434" t="s">
         <v>21</v>
@@ -16395,13 +16395,13 @@
         <v>12</v>
       </c>
       <c r="C437">
-        <v>1109</v>
+        <v>1122</v>
       </c>
       <c r="D437">
         <v>171</v>
       </c>
       <c r="E437">
-        <v>5880864</v>
+        <v>5989240</v>
       </c>
       <c r="F437" t="s">
         <v>21</v>
@@ -16430,13 +16430,13 @@
         <v>12</v>
       </c>
       <c r="C438">
-        <v>26203</v>
+        <v>26338</v>
       </c>
       <c r="D438">
-        <v>6148</v>
+        <v>6150</v>
       </c>
       <c r="E438">
-        <v>117585750</v>
+        <v>118944493</v>
       </c>
       <c r="F438" t="s">
         <v>21</v>
@@ -16535,13 +16535,13 @@
         <v>12</v>
       </c>
       <c r="C441">
-        <v>12102</v>
+        <v>12167</v>
       </c>
       <c r="D441">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="E441">
-        <v>60455118</v>
+        <v>61261895</v>
       </c>
       <c r="F441" t="s">
         <v>21</v>
@@ -16570,13 +16570,13 @@
         <v>12</v>
       </c>
       <c r="C442">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="D442">
         <v>213</v>
       </c>
       <c r="E442">
-        <v>1531146</v>
+        <v>1540864</v>
       </c>
       <c r="F442" t="s">
         <v>21</v>
@@ -16605,13 +16605,13 @@
         <v>12</v>
       </c>
       <c r="C443">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D443">
         <v>227</v>
       </c>
       <c r="E443">
-        <v>3400762</v>
+        <v>3401758</v>
       </c>
       <c r="F443" t="s">
         <v>21</v>
@@ -16640,13 +16640,13 @@
         <v>12</v>
       </c>
       <c r="C444">
-        <v>27559</v>
+        <v>27615</v>
       </c>
       <c r="D444">
         <v>6806</v>
       </c>
       <c r="E444">
-        <v>48322256</v>
+        <v>48502808</v>
       </c>
       <c r="F444" t="s">
         <v>21</v>
@@ -16675,13 +16675,13 @@
         <v>12</v>
       </c>
       <c r="C445">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D445">
         <v>5</v>
       </c>
       <c r="E445">
-        <v>18967</v>
+        <v>28967</v>
       </c>
       <c r="F445" t="s">
         <v>21</v>
@@ -16745,13 +16745,13 @@
         <v>12</v>
       </c>
       <c r="C447">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D447">
         <v>78</v>
       </c>
       <c r="E447">
-        <v>2182767</v>
+        <v>2186384</v>
       </c>
       <c r="F447" t="s">
         <v>21</v>
@@ -16780,13 +16780,13 @@
         <v>12</v>
       </c>
       <c r="C448">
-        <v>10136</v>
+        <v>10186</v>
       </c>
       <c r="D448">
         <v>2355</v>
       </c>
       <c r="E448">
-        <v>49010922</v>
+        <v>49409333</v>
       </c>
       <c r="F448" t="s">
         <v>21</v>
@@ -16850,13 +16850,13 @@
         <v>12</v>
       </c>
       <c r="C450">
-        <v>5251</v>
+        <v>5274</v>
       </c>
       <c r="D450">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="E450">
-        <v>27080808</v>
+        <v>27405824</v>
       </c>
       <c r="F450" t="s">
         <v>21</v>
@@ -16920,13 +16920,13 @@
         <v>12</v>
       </c>
       <c r="C452">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="D452">
         <v>189</v>
       </c>
       <c r="E452">
-        <v>2952215</v>
+        <v>2975586</v>
       </c>
       <c r="F452" t="s">
         <v>21</v>
@@ -16955,13 +16955,13 @@
         <v>12</v>
       </c>
       <c r="C453">
-        <v>76375</v>
+        <v>76520</v>
       </c>
       <c r="D453">
-        <v>16243</v>
+        <v>16244</v>
       </c>
       <c r="E453">
-        <v>131666947</v>
+        <v>131965696</v>
       </c>
       <c r="F453" t="s">
         <v>22</v>
@@ -17025,13 +17025,13 @@
         <v>12</v>
       </c>
       <c r="C455">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D455">
         <v>67</v>
       </c>
       <c r="E455">
-        <v>1859696</v>
+        <v>1869696</v>
       </c>
       <c r="F455" t="s">
         <v>22</v>
@@ -17060,13 +17060,13 @@
         <v>12</v>
       </c>
       <c r="C456">
-        <v>28834</v>
+        <v>28931</v>
       </c>
       <c r="D456">
-        <v>6972</v>
+        <v>6974</v>
       </c>
       <c r="E456">
-        <v>112050757</v>
+        <v>112940369</v>
       </c>
       <c r="F456" t="s">
         <v>22</v>
@@ -17130,13 +17130,13 @@
         <v>12</v>
       </c>
       <c r="C458">
-        <v>28144</v>
+        <v>28221</v>
       </c>
       <c r="D458">
-        <v>5910</v>
+        <v>5912</v>
       </c>
       <c r="E458">
-        <v>99963243</v>
+        <v>100374841</v>
       </c>
       <c r="F458" t="s">
         <v>22</v>
@@ -17165,13 +17165,13 @@
         <v>12</v>
       </c>
       <c r="C459">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D459">
         <v>86</v>
       </c>
       <c r="E459">
-        <v>663471</v>
+        <v>664791</v>
       </c>
       <c r="F459" t="s">
         <v>22</v>
@@ -17200,13 +17200,13 @@
         <v>12</v>
       </c>
       <c r="C460">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="D460">
         <v>220</v>
       </c>
       <c r="E460">
-        <v>3473708</v>
+        <v>3512387</v>
       </c>
       <c r="F460" t="s">
         <v>22</v>
@@ -17235,13 +17235,13 @@
         <v>12</v>
       </c>
       <c r="C461">
-        <v>141095</v>
+        <v>141351</v>
       </c>
       <c r="D461">
-        <v>27067</v>
+        <v>27070</v>
       </c>
       <c r="E461">
-        <v>248699682</v>
+        <v>249254832</v>
       </c>
       <c r="F461" t="s">
         <v>22</v>
@@ -17270,13 +17270,13 @@
         <v>12</v>
       </c>
       <c r="C462">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D462">
         <v>4</v>
       </c>
       <c r="E462">
-        <v>89687</v>
+        <v>99687</v>
       </c>
       <c r="F462" t="s">
         <v>22</v>
@@ -17305,13 +17305,13 @@
         <v>12</v>
       </c>
       <c r="C463">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D463">
         <v>12</v>
       </c>
       <c r="E463">
-        <v>243501</v>
+        <v>249154</v>
       </c>
       <c r="F463" t="s">
         <v>22</v>
@@ -17340,13 +17340,13 @@
         <v>12</v>
       </c>
       <c r="C464">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="D464">
         <v>151</v>
       </c>
       <c r="E464">
-        <v>7064879</v>
+        <v>7162718</v>
       </c>
       <c r="F464" t="s">
         <v>22</v>
@@ -17375,13 +17375,13 @@
         <v>12</v>
       </c>
       <c r="C465">
-        <v>58377</v>
+        <v>58605</v>
       </c>
       <c r="D465">
-        <v>11839</v>
+        <v>11841</v>
       </c>
       <c r="E465">
-        <v>257797149</v>
+        <v>259586336</v>
       </c>
       <c r="F465" t="s">
         <v>22</v>
@@ -17410,13 +17410,13 @@
         <v>12</v>
       </c>
       <c r="C466">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D466">
         <v>61</v>
       </c>
       <c r="E466">
-        <v>7513059</v>
+        <v>7601706</v>
       </c>
       <c r="F466" t="s">
         <v>22</v>
@@ -17445,13 +17445,13 @@
         <v>12</v>
       </c>
       <c r="C467">
-        <v>59561</v>
+        <v>59741</v>
       </c>
       <c r="D467">
-        <v>11259</v>
+        <v>11260</v>
       </c>
       <c r="E467">
-        <v>257915380</v>
+        <v>259948791</v>
       </c>
       <c r="F467" t="s">
         <v>22</v>
@@ -17515,13 +17515,13 @@
         <v>12</v>
       </c>
       <c r="C469">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="D469">
         <v>407</v>
       </c>
       <c r="E469">
-        <v>6936143</v>
+        <v>6981076</v>
       </c>
       <c r="F469" t="s">
         <v>22</v>
@@ -17550,13 +17550,13 @@
         <v>12</v>
       </c>
       <c r="C470">
-        <v>349835</v>
+        <v>350651</v>
       </c>
       <c r="D470">
-        <v>69713</v>
+        <v>69731</v>
       </c>
       <c r="E470">
-        <v>605712050</v>
+        <v>607680225</v>
       </c>
       <c r="F470" t="s">
         <v>22</v>
@@ -17620,13 +17620,13 @@
         <v>12</v>
       </c>
       <c r="C472">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D472">
         <v>77</v>
       </c>
       <c r="E472">
-        <v>1934700</v>
+        <v>1945520</v>
       </c>
       <c r="F472" t="s">
         <v>22</v>
@@ -17725,13 +17725,13 @@
         <v>12</v>
       </c>
       <c r="C475">
-        <v>2705</v>
+        <v>2729</v>
       </c>
       <c r="D475">
         <v>513</v>
       </c>
       <c r="E475">
-        <v>38261157</v>
+        <v>38752266</v>
       </c>
       <c r="F475" t="s">
         <v>22</v>
@@ -17760,13 +17760,13 @@
         <v>12</v>
       </c>
       <c r="C476">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D476">
         <v>27</v>
       </c>
       <c r="E476">
-        <v>2700746</v>
+        <v>2932740</v>
       </c>
       <c r="F476" t="s">
         <v>22</v>
@@ -17795,13 +17795,13 @@
         <v>12</v>
       </c>
       <c r="C477">
-        <v>222384</v>
+        <v>223303</v>
       </c>
       <c r="D477">
-        <v>41874</v>
+        <v>41886</v>
       </c>
       <c r="E477">
-        <v>1110555987</v>
+        <v>1120008445</v>
       </c>
       <c r="F477" t="s">
         <v>22</v>
@@ -17830,13 +17830,13 @@
         <v>12</v>
       </c>
       <c r="C478">
-        <v>1834</v>
+        <v>1843</v>
       </c>
       <c r="D478">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E478">
-        <v>41201783</v>
+        <v>41653309</v>
       </c>
       <c r="F478" t="s">
         <v>22</v>
@@ -17900,13 +17900,13 @@
         <v>12</v>
       </c>
       <c r="C480">
-        <v>174230</v>
+        <v>174928</v>
       </c>
       <c r="D480">
-        <v>32908</v>
+        <v>32924</v>
       </c>
       <c r="E480">
-        <v>1008951944</v>
+        <v>1017763734</v>
       </c>
       <c r="F480" t="s">
         <v>22</v>
@@ -17970,13 +17970,13 @@
         <v>12</v>
       </c>
       <c r="C482">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="D482">
         <v>593</v>
       </c>
       <c r="E482">
-        <v>6163104</v>
+        <v>6166781</v>
       </c>
       <c r="F482" t="s">
         <v>22</v>
@@ -18005,13 +18005,13 @@
         <v>12</v>
       </c>
       <c r="C483">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D483">
         <v>7</v>
       </c>
       <c r="E483">
-        <v>230050</v>
+        <v>297330</v>
       </c>
       <c r="F483" t="s">
         <v>22</v>
@@ -18040,13 +18040,13 @@
         <v>12</v>
       </c>
       <c r="C484">
-        <v>8955</v>
+        <v>8994</v>
       </c>
       <c r="D484">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="E484">
-        <v>39331506</v>
+        <v>39639472</v>
       </c>
       <c r="F484" t="s">
         <v>22</v>
@@ -18145,13 +18145,13 @@
         <v>12</v>
       </c>
       <c r="C487">
-        <v>88707</v>
+        <v>88900</v>
       </c>
       <c r="D487">
-        <v>18876</v>
+        <v>18879</v>
       </c>
       <c r="E487">
-        <v>152983993</v>
+        <v>153417334</v>
       </c>
       <c r="F487" t="s">
         <v>22</v>
@@ -18215,13 +18215,13 @@
         <v>12</v>
       </c>
       <c r="C489">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D489">
         <v>5</v>
       </c>
       <c r="E489">
-        <v>55673</v>
+        <v>57390</v>
       </c>
       <c r="F489" t="s">
         <v>22</v>
@@ -18250,13 +18250,13 @@
         <v>12</v>
       </c>
       <c r="C490">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D490">
         <v>112</v>
       </c>
       <c r="E490">
-        <v>3655483</v>
+        <v>3675483</v>
       </c>
       <c r="F490" t="s">
         <v>22</v>
@@ -18285,13 +18285,13 @@
         <v>12</v>
       </c>
       <c r="C491">
-        <v>33413</v>
+        <v>33524</v>
       </c>
       <c r="D491">
-        <v>7869</v>
+        <v>7872</v>
       </c>
       <c r="E491">
-        <v>137445180</v>
+        <v>138438123</v>
       </c>
       <c r="F491" t="s">
         <v>22</v>
@@ -18320,13 +18320,13 @@
         <v>12</v>
       </c>
       <c r="C492">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D492">
         <v>15</v>
       </c>
       <c r="E492">
-        <v>863773</v>
+        <v>872673</v>
       </c>
       <c r="F492" t="s">
         <v>22</v>
@@ -18355,13 +18355,13 @@
         <v>12</v>
       </c>
       <c r="C493">
-        <v>30836</v>
+        <v>30939</v>
       </c>
       <c r="D493">
-        <v>6450</v>
+        <v>6453</v>
       </c>
       <c r="E493">
-        <v>119113121</v>
+        <v>119855025</v>
       </c>
       <c r="F493" t="s">
         <v>22</v>
@@ -18390,13 +18390,13 @@
         <v>12</v>
       </c>
       <c r="C494">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D494">
         <v>325</v>
       </c>
       <c r="E494">
-        <v>2099326</v>
+        <v>2103826</v>
       </c>
       <c r="F494" t="s">
         <v>22</v>
@@ -18425,13 +18425,13 @@
         <v>12</v>
       </c>
       <c r="C495">
-        <v>1203</v>
+        <v>1213</v>
       </c>
       <c r="D495">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E495">
-        <v>4004830</v>
+        <v>4037683</v>
       </c>
       <c r="F495" t="s">
         <v>22</v>
@@ -18495,13 +18495,13 @@
         <v>12</v>
       </c>
       <c r="C497">
-        <v>157699</v>
+        <v>157983</v>
       </c>
       <c r="D497">
-        <v>27445</v>
+        <v>27448</v>
       </c>
       <c r="E497">
-        <v>289052025</v>
+        <v>289681321</v>
       </c>
       <c r="F497" t="s">
         <v>22</v>
@@ -18600,13 +18600,13 @@
         <v>12</v>
       </c>
       <c r="C500">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D500">
         <v>113</v>
       </c>
       <c r="E500">
-        <v>3355302</v>
+        <v>3388600</v>
       </c>
       <c r="F500" t="s">
         <v>22</v>
@@ -18635,13 +18635,13 @@
         <v>12</v>
       </c>
       <c r="C501">
-        <v>50492</v>
+        <v>50650</v>
       </c>
       <c r="D501">
-        <v>11112</v>
+        <v>11114</v>
       </c>
       <c r="E501">
-        <v>198834360</v>
+        <v>200419352</v>
       </c>
       <c r="F501" t="s">
         <v>22</v>
@@ -18705,13 +18705,13 @@
         <v>12</v>
       </c>
       <c r="C503">
-        <v>57909</v>
+        <v>58068</v>
       </c>
       <c r="D503">
-        <v>10725</v>
+        <v>10728</v>
       </c>
       <c r="E503">
-        <v>189152012</v>
+        <v>190266863</v>
       </c>
       <c r="F503" t="s">
         <v>22</v>
@@ -18775,13 +18775,13 @@
         <v>12</v>
       </c>
       <c r="C505">
-        <v>2487</v>
+        <v>2493</v>
       </c>
       <c r="D505">
         <v>522</v>
       </c>
       <c r="E505">
-        <v>7770474</v>
+        <v>7810181</v>
       </c>
       <c r="F505" t="s">
         <v>22</v>
@@ -18810,13 +18810,13 @@
         <v>12</v>
       </c>
       <c r="C506">
-        <v>121860</v>
+        <v>122076</v>
       </c>
       <c r="D506">
-        <v>23396</v>
+        <v>23398</v>
       </c>
       <c r="E506">
-        <v>211791709</v>
+        <v>212256297</v>
       </c>
       <c r="F506" t="s">
         <v>22</v>
@@ -18880,13 +18880,13 @@
         <v>12</v>
       </c>
       <c r="C508">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D508">
         <v>91</v>
       </c>
       <c r="E508">
-        <v>3178677</v>
+        <v>3280977</v>
       </c>
       <c r="F508" t="s">
         <v>22</v>
@@ -18915,13 +18915,13 @@
         <v>12</v>
       </c>
       <c r="C509">
-        <v>40208</v>
+        <v>40321</v>
       </c>
       <c r="D509">
-        <v>8674</v>
+        <v>8675</v>
       </c>
       <c r="E509">
-        <v>163388744</v>
+        <v>164273195</v>
       </c>
       <c r="F509" t="s">
         <v>22</v>
@@ -18950,13 +18950,13 @@
         <v>12</v>
       </c>
       <c r="C510">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D510">
         <v>25</v>
       </c>
       <c r="E510">
-        <v>2009231</v>
+        <v>2037709</v>
       </c>
       <c r="F510" t="s">
         <v>22</v>
@@ -19020,13 +19020,13 @@
         <v>12</v>
       </c>
       <c r="C512">
-        <v>45231</v>
+        <v>45342</v>
       </c>
       <c r="D512">
-        <v>8619</v>
+        <v>8623</v>
       </c>
       <c r="E512">
-        <v>164423650</v>
+        <v>165058041</v>
       </c>
       <c r="F512" t="s">
         <v>22</v>
@@ -19055,13 +19055,13 @@
         <v>12</v>
       </c>
       <c r="C513">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D513">
         <v>135</v>
       </c>
       <c r="E513">
-        <v>915585</v>
+        <v>917042</v>
       </c>
       <c r="F513" t="s">
         <v>22</v>
@@ -19090,13 +19090,13 @@
         <v>12</v>
       </c>
       <c r="C514">
-        <v>2061</v>
+        <v>2066</v>
       </c>
       <c r="D514">
         <v>439</v>
       </c>
       <c r="E514">
-        <v>9551463</v>
+        <v>9603477</v>
       </c>
       <c r="F514" t="s">
         <v>22</v>
@@ -19125,13 +19125,13 @@
         <v>12</v>
       </c>
       <c r="C515">
-        <v>92276</v>
+        <v>92431</v>
       </c>
       <c r="D515">
         <v>17496</v>
       </c>
       <c r="E515">
-        <v>165850104</v>
+        <v>166201006</v>
       </c>
       <c r="F515" t="s">
         <v>22</v>
@@ -19230,13 +19230,13 @@
         <v>12</v>
       </c>
       <c r="C518">
-        <v>29669</v>
+        <v>29753</v>
       </c>
       <c r="D518">
         <v>7024</v>
       </c>
       <c r="E518">
-        <v>114632517</v>
+        <v>115196616</v>
       </c>
       <c r="F518" t="s">
         <v>22</v>
@@ -19265,13 +19265,13 @@
         <v>12</v>
       </c>
       <c r="C519">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D519">
         <v>16</v>
       </c>
       <c r="E519">
-        <v>514811</v>
+        <v>516311</v>
       </c>
       <c r="F519" t="s">
         <v>22</v>
@@ -19300,13 +19300,13 @@
         <v>12</v>
       </c>
       <c r="C520">
-        <v>34403</v>
+        <v>34491</v>
       </c>
       <c r="D520">
         <v>6743</v>
       </c>
       <c r="E520">
-        <v>114508148</v>
+        <v>115089649</v>
       </c>
       <c r="F520" t="s">
         <v>22</v>
@@ -19370,13 +19370,13 @@
         <v>12</v>
       </c>
       <c r="C522">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D522">
         <v>223</v>
       </c>
       <c r="E522">
-        <v>3100025</v>
+        <v>3104469</v>
       </c>
       <c r="F522" t="s">
         <v>22</v>
@@ -19405,13 +19405,13 @@
         <v>12</v>
       </c>
       <c r="C523">
-        <v>84970</v>
+        <v>85127</v>
       </c>
       <c r="D523">
-        <v>19113</v>
+        <v>19115</v>
       </c>
       <c r="E523">
-        <v>143020226</v>
+        <v>143315752</v>
       </c>
       <c r="F523" t="s">
         <v>22</v>
@@ -19475,13 +19475,13 @@
         <v>12</v>
       </c>
       <c r="C525">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D525">
         <v>100</v>
       </c>
       <c r="E525">
-        <v>3707188</v>
+        <v>3737188</v>
       </c>
       <c r="F525" t="s">
         <v>22</v>
@@ -19510,13 +19510,13 @@
         <v>12</v>
       </c>
       <c r="C526">
-        <v>35936</v>
+        <v>36038</v>
       </c>
       <c r="D526">
-        <v>8465</v>
+        <v>8467</v>
       </c>
       <c r="E526">
-        <v>151930378</v>
+        <v>152919311</v>
       </c>
       <c r="F526" t="s">
         <v>22</v>
@@ -19580,13 +19580,13 @@
         <v>12</v>
       </c>
       <c r="C528">
-        <v>30953</v>
+        <v>31026</v>
       </c>
       <c r="D528">
-        <v>6540</v>
+        <v>6543</v>
       </c>
       <c r="E528">
-        <v>117248303</v>
+        <v>117762131</v>
       </c>
       <c r="F528" t="s">
         <v>22</v>
@@ -19685,13 +19685,13 @@
         <v>12</v>
       </c>
       <c r="C531">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="D531">
         <v>236</v>
       </c>
       <c r="E531">
-        <v>4244910</v>
+        <v>4290862</v>
       </c>
       <c r="F531" t="s">
         <v>22</v>
@@ -19720,13 +19720,13 @@
         <v>12</v>
       </c>
       <c r="C532">
-        <v>66033</v>
+        <v>66143</v>
       </c>
       <c r="D532">
         <v>17374</v>
       </c>
       <c r="E532">
-        <v>97968475</v>
+        <v>98208045</v>
       </c>
       <c r="F532" t="s">
         <v>23</v>
@@ -19895,13 +19895,13 @@
         <v>12</v>
       </c>
       <c r="C537">
-        <v>19689</v>
+        <v>19734</v>
       </c>
       <c r="D537">
         <v>6025</v>
       </c>
       <c r="E537">
-        <v>50420280</v>
+        <v>50772758</v>
       </c>
       <c r="F537" t="s">
         <v>23</v>
@@ -19965,13 +19965,13 @@
         <v>12</v>
       </c>
       <c r="C539">
-        <v>5647</v>
+        <v>5660</v>
       </c>
       <c r="D539">
         <v>1588</v>
       </c>
       <c r="E539">
-        <v>14714541</v>
+        <v>14901460</v>
       </c>
       <c r="F539" t="s">
         <v>23</v>
@@ -20070,13 +20070,13 @@
         <v>12</v>
       </c>
       <c r="C542">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D542">
         <v>169</v>
       </c>
       <c r="E542">
-        <v>883776</v>
+        <v>886276</v>
       </c>
       <c r="F542" t="s">
         <v>23</v>
@@ -20105,13 +20105,13 @@
         <v>12</v>
       </c>
       <c r="C543">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D543">
         <v>173</v>
       </c>
       <c r="E543">
-        <v>1525327</v>
+        <v>1535327</v>
       </c>
       <c r="F543" t="s">
         <v>23</v>
@@ -20140,13 +20140,13 @@
         <v>12</v>
       </c>
       <c r="C544">
-        <v>30720</v>
+        <v>30776</v>
       </c>
       <c r="D544">
-        <v>7070</v>
+        <v>7071</v>
       </c>
       <c r="E544">
-        <v>48026578</v>
+        <v>48157226</v>
       </c>
       <c r="F544" t="s">
         <v>24</v>
@@ -20245,13 +20245,13 @@
         <v>12</v>
       </c>
       <c r="C547">
-        <v>12827</v>
+        <v>12873</v>
       </c>
       <c r="D547">
-        <v>3177</v>
+        <v>3181</v>
       </c>
       <c r="E547">
-        <v>37319121</v>
+        <v>37734708</v>
       </c>
       <c r="F547" t="s">
         <v>24</v>
@@ -20315,13 +20315,13 @@
         <v>12</v>
       </c>
       <c r="C549">
-        <v>9114</v>
+        <v>9125</v>
       </c>
       <c r="D549">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="E549">
-        <v>22948127</v>
+        <v>23016487</v>
       </c>
       <c r="F549" t="s">
         <v>24</v>
@@ -20350,13 +20350,13 @@
         <v>12</v>
       </c>
       <c r="C550">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D550">
         <v>126</v>
       </c>
       <c r="E550">
-        <v>812661</v>
+        <v>813134</v>
       </c>
       <c r="F550" t="s">
         <v>24</v>
@@ -20385,13 +20385,13 @@
         <v>12</v>
       </c>
       <c r="C551">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D551">
         <v>127</v>
       </c>
       <c r="E551">
-        <v>1180432</v>
+        <v>1191932</v>
       </c>
       <c r="F551" t="s">
         <v>24</v>
@@ -20420,13 +20420,13 @@
         <v>12</v>
       </c>
       <c r="C552">
-        <v>40906</v>
+        <v>40957</v>
       </c>
       <c r="D552">
         <v>5397</v>
       </c>
       <c r="E552">
-        <v>97046722</v>
+        <v>97130130</v>
       </c>
       <c r="F552" t="s">
         <v>25</v>
@@ -20455,13 +20455,13 @@
         <v>12</v>
       </c>
       <c r="C553">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="D553">
         <v>677</v>
       </c>
       <c r="E553">
-        <v>10665163</v>
+        <v>10673740</v>
       </c>
       <c r="F553" t="s">
         <v>25</v>
@@ -20595,13 +20595,13 @@
         <v>12</v>
       </c>
       <c r="C557">
-        <v>42876</v>
+        <v>42967</v>
       </c>
       <c r="D557">
-        <v>10782</v>
+        <v>10783</v>
       </c>
       <c r="E557">
-        <v>77227467</v>
+        <v>77524844</v>
       </c>
       <c r="F557" t="s">
         <v>26</v>
@@ -20700,13 +20700,13 @@
         <v>12</v>
       </c>
       <c r="C560">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="D560">
         <v>159</v>
       </c>
       <c r="E560">
-        <v>6280295</v>
+        <v>6385230</v>
       </c>
       <c r="F560" t="s">
         <v>26</v>
@@ -20735,13 +20735,13 @@
         <v>12</v>
       </c>
       <c r="C561">
-        <v>22179</v>
+        <v>22263</v>
       </c>
       <c r="D561">
-        <v>4868</v>
+        <v>4869</v>
       </c>
       <c r="E561">
-        <v>108157695</v>
+        <v>109012741</v>
       </c>
       <c r="F561" t="s">
         <v>26</v>
@@ -20805,13 +20805,13 @@
         <v>12</v>
       </c>
       <c r="C563">
-        <v>9061</v>
+        <v>9112</v>
       </c>
       <c r="D563">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="E563">
-        <v>53013446</v>
+        <v>53585345</v>
       </c>
       <c r="F563" t="s">
         <v>26</v>
@@ -20840,13 +20840,13 @@
         <v>12</v>
       </c>
       <c r="C564">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D564">
         <v>186</v>
       </c>
       <c r="E564">
-        <v>1606558</v>
+        <v>1607968</v>
       </c>
       <c r="F564" t="s">
         <v>26</v>
@@ -20875,13 +20875,13 @@
         <v>12</v>
       </c>
       <c r="C565">
-        <v>1525</v>
+        <v>1533</v>
       </c>
       <c r="D565">
         <v>310</v>
       </c>
       <c r="E565">
-        <v>5859194</v>
+        <v>5920753</v>
       </c>
       <c r="F565" t="s">
         <v>26</v>
@@ -20910,13 +20910,13 @@
         <v>12</v>
       </c>
       <c r="C566">
-        <v>29435</v>
+        <v>29509</v>
       </c>
       <c r="D566">
-        <v>7139</v>
+        <v>7141</v>
       </c>
       <c r="E566">
-        <v>53078561</v>
+        <v>53288852</v>
       </c>
       <c r="F566" t="s">
         <v>26</v>
@@ -20945,13 +20945,13 @@
         <v>12</v>
       </c>
       <c r="C567">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D567">
         <v>63</v>
       </c>
       <c r="E567">
-        <v>1878874</v>
+        <v>1894491</v>
       </c>
       <c r="F567" t="s">
         <v>26</v>
@@ -20980,13 +20980,13 @@
         <v>12</v>
       </c>
       <c r="C568">
-        <v>12684</v>
+        <v>12747</v>
       </c>
       <c r="D568">
         <v>3097</v>
       </c>
       <c r="E568">
-        <v>52560367</v>
+        <v>53057100</v>
       </c>
       <c r="F568" t="s">
         <v>26</v>
@@ -21015,13 +21015,13 @@
         <v>12</v>
       </c>
       <c r="C569">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D569">
         <v>5</v>
       </c>
       <c r="E569">
-        <v>347505</v>
+        <v>360510</v>
       </c>
       <c r="F569" t="s">
         <v>26</v>
@@ -21050,13 +21050,13 @@
         <v>12</v>
       </c>
       <c r="C570">
-        <v>6409</v>
+        <v>6426</v>
       </c>
       <c r="D570">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="E570">
-        <v>26255227</v>
+        <v>26411626</v>
       </c>
       <c r="F570" t="s">
         <v>26</v>
@@ -21120,13 +21120,13 @@
         <v>12</v>
       </c>
       <c r="C572">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="D572">
         <v>155</v>
       </c>
       <c r="E572">
-        <v>2048154</v>
+        <v>2070398</v>
       </c>
       <c r="F572" t="s">
         <v>26</v>
@@ -21155,13 +21155,13 @@
         <v>12</v>
       </c>
       <c r="C573">
-        <v>26848</v>
+        <v>26947</v>
       </c>
       <c r="D573">
-        <v>6658</v>
+        <v>6660</v>
       </c>
       <c r="E573">
-        <v>55041101</v>
+        <v>55395655</v>
       </c>
       <c r="F573" t="s">
         <v>26</v>
@@ -21260,13 +21260,13 @@
         <v>12</v>
       </c>
       <c r="C576">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="D576">
         <v>104</v>
       </c>
       <c r="E576">
-        <v>3924412</v>
+        <v>3978255</v>
       </c>
       <c r="F576" t="s">
         <v>26</v>
@@ -21330,13 +21330,13 @@
         <v>12</v>
       </c>
       <c r="C578">
-        <v>12523</v>
+        <v>12598</v>
       </c>
       <c r="D578">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="E578">
-        <v>60421616</v>
+        <v>61124603</v>
       </c>
       <c r="F578" t="s">
         <v>26</v>
@@ -21400,13 +21400,13 @@
         <v>12</v>
       </c>
       <c r="C580">
-        <v>3037</v>
+        <v>3050</v>
       </c>
       <c r="D580">
         <v>669</v>
       </c>
       <c r="E580">
-        <v>18424282</v>
+        <v>18560237</v>
       </c>
       <c r="F580" t="s">
         <v>26</v>
@@ -21435,13 +21435,13 @@
         <v>12</v>
       </c>
       <c r="C581">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D581">
         <v>153</v>
       </c>
       <c r="E581">
-        <v>1401020</v>
+        <v>1409507</v>
       </c>
       <c r="F581" t="s">
         <v>26</v>
@@ -21470,13 +21470,13 @@
         <v>12</v>
       </c>
       <c r="C582">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D582">
         <v>157</v>
       </c>
       <c r="E582">
-        <v>3186128</v>
+        <v>3191792</v>
       </c>
       <c r="F582" t="s">
         <v>26</v>
@@ -21505,13 +21505,13 @@
         <v>12</v>
       </c>
       <c r="C583">
-        <v>14525</v>
+        <v>14562</v>
       </c>
       <c r="D583">
         <v>3644</v>
       </c>
       <c r="E583">
-        <v>28742650</v>
+        <v>28851235</v>
       </c>
       <c r="F583" t="s">
         <v>26</v>
@@ -21610,13 +21610,13 @@
         <v>12</v>
       </c>
       <c r="C586">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D586">
         <v>39</v>
       </c>
       <c r="E586">
-        <v>1299087</v>
+        <v>1315922</v>
       </c>
       <c r="F586" t="s">
         <v>26</v>
@@ -21645,13 +21645,13 @@
         <v>12</v>
       </c>
       <c r="C587">
-        <v>5630</v>
+        <v>5659</v>
       </c>
       <c r="D587">
         <v>1364</v>
       </c>
       <c r="E587">
-        <v>23858536</v>
+        <v>24040907</v>
       </c>
       <c r="F587" t="s">
         <v>26</v>
@@ -21680,13 +21680,13 @@
         <v>12</v>
       </c>
       <c r="C588">
-        <v>2064</v>
+        <v>2072</v>
       </c>
       <c r="D588">
         <v>460</v>
       </c>
       <c r="E588">
-        <v>9336299</v>
+        <v>9397249</v>
       </c>
       <c r="F588" t="s">
         <v>26</v>
@@ -21750,13 +21750,13 @@
         <v>12</v>
       </c>
       <c r="C590">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D590">
         <v>92</v>
       </c>
       <c r="E590">
-        <v>1261265</v>
+        <v>1262119</v>
       </c>
       <c r="F590" t="s">
         <v>26</v>
@@ -21785,13 +21785,13 @@
         <v>12</v>
       </c>
       <c r="C591">
-        <v>57719</v>
+        <v>57926</v>
       </c>
       <c r="D591">
-        <v>14169</v>
+        <v>14175</v>
       </c>
       <c r="E591">
-        <v>103435077</v>
+        <v>104020858</v>
       </c>
       <c r="F591" t="s">
         <v>26</v>
@@ -21890,13 +21890,13 @@
         <v>12</v>
       </c>
       <c r="C594">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="D594">
         <v>131</v>
       </c>
       <c r="E594">
-        <v>5297502</v>
+        <v>5360174</v>
       </c>
       <c r="F594" t="s">
         <v>26</v>
@@ -21925,13 +21925,13 @@
         <v>12</v>
       </c>
       <c r="C595">
-        <v>26520</v>
+        <v>26663</v>
       </c>
       <c r="D595">
-        <v>6031</v>
+        <v>6035</v>
       </c>
       <c r="E595">
-        <v>126629393</v>
+        <v>128339718</v>
       </c>
       <c r="F595" t="s">
         <v>26</v>
@@ -21995,13 +21995,13 @@
         <v>12</v>
       </c>
       <c r="C597">
-        <v>12454</v>
+        <v>12522</v>
       </c>
       <c r="D597">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="E597">
-        <v>60423665</v>
+        <v>60927282</v>
       </c>
       <c r="F597" t="s">
         <v>26</v>
@@ -22030,13 +22030,13 @@
         <v>12</v>
       </c>
       <c r="C598">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D598">
         <v>150</v>
       </c>
       <c r="E598">
-        <v>965712</v>
+        <v>969414</v>
       </c>
       <c r="F598" t="s">
         <v>26</v>
@@ -22065,13 +22065,13 @@
         <v>12</v>
       </c>
       <c r="C599">
-        <v>1968</v>
+        <v>1980</v>
       </c>
       <c r="D599">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E599">
-        <v>8038457</v>
+        <v>8095818</v>
       </c>
       <c r="F599" t="s">
         <v>26</v>
@@ -22100,13 +22100,13 @@
         <v>12</v>
       </c>
       <c r="C600">
-        <v>21618</v>
+        <v>21693</v>
       </c>
       <c r="D600">
         <v>5483</v>
       </c>
       <c r="E600">
-        <v>36384762</v>
+        <v>36588124</v>
       </c>
       <c r="F600" t="s">
         <v>27</v>
@@ -22170,13 +22170,13 @@
         <v>12</v>
       </c>
       <c r="C602">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D602">
         <v>28</v>
       </c>
       <c r="E602">
-        <v>614810</v>
+        <v>635861</v>
       </c>
       <c r="F602" t="s">
         <v>27</v>
@@ -22240,13 +22240,13 @@
         <v>12</v>
       </c>
       <c r="C604">
-        <v>8021</v>
+        <v>8041</v>
       </c>
       <c r="D604">
         <v>1940</v>
       </c>
       <c r="E604">
-        <v>36276374</v>
+        <v>36449486</v>
       </c>
       <c r="F604" t="s">
         <v>27</v>
@@ -22310,13 +22310,13 @@
         <v>12</v>
       </c>
       <c r="C606">
-        <v>2579</v>
+        <v>2587</v>
       </c>
       <c r="D606">
         <v>622</v>
       </c>
       <c r="E606">
-        <v>14304392</v>
+        <v>14351932</v>
       </c>
       <c r="F606" t="s">
         <v>27</v>
@@ -22380,13 +22380,13 @@
         <v>12</v>
       </c>
       <c r="C608">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D608">
         <v>140</v>
       </c>
       <c r="E608">
-        <v>2405360</v>
+        <v>2409920</v>
       </c>
       <c r="F608" t="s">
         <v>27</v>
@@ -22415,13 +22415,13 @@
         <v>12</v>
       </c>
       <c r="C609">
-        <v>52476</v>
+        <v>52603</v>
       </c>
       <c r="D609">
-        <v>13648</v>
+        <v>13650</v>
       </c>
       <c r="E609">
-        <v>89744164</v>
+        <v>90092280</v>
       </c>
       <c r="F609" t="s">
         <v>27</v>
@@ -22450,13 +22450,13 @@
         <v>12</v>
       </c>
       <c r="C610">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D610">
         <v>18</v>
       </c>
       <c r="E610">
-        <v>208554</v>
+        <v>209687</v>
       </c>
       <c r="F610" t="s">
         <v>27</v>
@@ -22520,13 +22520,13 @@
         <v>12</v>
       </c>
       <c r="C612">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D612">
         <v>77</v>
       </c>
       <c r="E612">
-        <v>2241939</v>
+        <v>2248776</v>
       </c>
       <c r="F612" t="s">
         <v>27</v>
@@ -22555,13 +22555,13 @@
         <v>12</v>
       </c>
       <c r="C613">
-        <v>25271</v>
+        <v>25386</v>
       </c>
       <c r="D613">
-        <v>5867</v>
+        <v>5869</v>
       </c>
       <c r="E613">
-        <v>124196432</v>
+        <v>125305742</v>
       </c>
       <c r="F613" t="s">
         <v>27</v>
@@ -22625,13 +22625,13 @@
         <v>12</v>
       </c>
       <c r="C615">
-        <v>7812</v>
+        <v>7838</v>
       </c>
       <c r="D615">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="E615">
-        <v>42430985</v>
+        <v>42645143</v>
       </c>
       <c r="F615" t="s">
         <v>27</v>
@@ -22660,13 +22660,13 @@
         <v>12</v>
       </c>
       <c r="C616">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="D616">
         <v>302</v>
       </c>
       <c r="E616">
-        <v>2846072</v>
+        <v>2869674</v>
       </c>
       <c r="F616" t="s">
         <v>27</v>
@@ -22695,13 +22695,13 @@
         <v>12</v>
       </c>
       <c r="C617">
-        <v>1358</v>
+        <v>1364</v>
       </c>
       <c r="D617">
         <v>300</v>
       </c>
       <c r="E617">
-        <v>5145831</v>
+        <v>5211848</v>
       </c>
       <c r="F617" t="s">
         <v>27</v>
@@ -22730,13 +22730,13 @@
         <v>12</v>
       </c>
       <c r="C618">
-        <v>14954</v>
+        <v>14997</v>
       </c>
       <c r="D618">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="E618">
-        <v>27534435</v>
+        <v>27678225</v>
       </c>
       <c r="F618" t="s">
         <v>27</v>
@@ -22765,13 +22765,13 @@
         <v>12</v>
       </c>
       <c r="C619">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D619">
         <v>32</v>
       </c>
       <c r="E619">
-        <v>1231535</v>
+        <v>1242017</v>
       </c>
       <c r="F619" t="s">
         <v>27</v>
@@ -22800,13 +22800,13 @@
         <v>12</v>
       </c>
       <c r="C620">
-        <v>6021</v>
+        <v>6044</v>
       </c>
       <c r="D620">
         <v>1427</v>
       </c>
       <c r="E620">
-        <v>26745642</v>
+        <v>26903069</v>
       </c>
       <c r="F620" t="s">
         <v>27</v>
@@ -22870,13 +22870,13 @@
         <v>12</v>
       </c>
       <c r="C622">
-        <v>3247</v>
+        <v>3261</v>
       </c>
       <c r="D622">
         <v>705</v>
       </c>
       <c r="E622">
-        <v>14937570</v>
+        <v>15031521</v>
       </c>
       <c r="F622" t="s">
         <v>27</v>
@@ -22905,13 +22905,13 @@
         <v>12</v>
       </c>
       <c r="C623">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D623">
         <v>203</v>
       </c>
       <c r="E623">
-        <v>944587</v>
+        <v>946087</v>
       </c>
       <c r="F623" t="s">
         <v>27</v>
@@ -22975,13 +22975,13 @@
         <v>12</v>
       </c>
       <c r="C625">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D625">
         <v>103</v>
       </c>
       <c r="E625">
-        <v>1820876</v>
+        <v>1840876</v>
       </c>
       <c r="F625" t="s">
         <v>27</v>
@@ -23010,13 +23010,13 @@
         <v>12</v>
       </c>
       <c r="C626">
-        <v>7337</v>
+        <v>7360</v>
       </c>
       <c r="D626">
         <v>1849</v>
       </c>
       <c r="E626">
-        <v>12627107</v>
+        <v>12680530</v>
       </c>
       <c r="F626" t="s">
         <v>27</v>
@@ -23045,13 +23045,13 @@
         <v>12</v>
       </c>
       <c r="C627">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D627">
         <v>10</v>
       </c>
       <c r="E627">
-        <v>318887</v>
+        <v>338770</v>
       </c>
       <c r="F627" t="s">
         <v>27</v>
@@ -23080,13 +23080,13 @@
         <v>12</v>
       </c>
       <c r="C628">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="D628">
         <v>416</v>
       </c>
       <c r="E628">
-        <v>6751906</v>
+        <v>6797692</v>
       </c>
       <c r="F628" t="s">
         <v>27</v>
@@ -23150,13 +23150,13 @@
         <v>12</v>
       </c>
       <c r="C630">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D630">
         <v>227</v>
       </c>
       <c r="E630">
-        <v>4168131</v>
+        <v>4172350</v>
       </c>
       <c r="F630" t="s">
         <v>27</v>
@@ -23220,13 +23220,13 @@
         <v>12</v>
       </c>
       <c r="C632">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D632">
         <v>77</v>
       </c>
       <c r="E632">
-        <v>1059998</v>
+        <v>1061498</v>
       </c>
       <c r="F632" t="s">
         <v>27</v>
@@ -23255,13 +23255,13 @@
         <v>12</v>
       </c>
       <c r="C633">
-        <v>17477</v>
+        <v>17522</v>
       </c>
       <c r="D633">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="E633">
-        <v>30079417</v>
+        <v>30194401</v>
       </c>
       <c r="F633" t="s">
         <v>27</v>
@@ -23360,13 +23360,13 @@
         <v>12</v>
       </c>
       <c r="C636">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D636">
         <v>28</v>
       </c>
       <c r="E636">
-        <v>809752</v>
+        <v>829752</v>
       </c>
       <c r="F636" t="s">
         <v>27</v>
@@ -23395,13 +23395,13 @@
         <v>12</v>
       </c>
       <c r="C637">
-        <v>7528</v>
+        <v>7558</v>
       </c>
       <c r="D637">
         <v>1837</v>
       </c>
       <c r="E637">
-        <v>34490845</v>
+        <v>34792698</v>
       </c>
       <c r="F637" t="s">
         <v>27</v>
@@ -23465,13 +23465,13 @@
         <v>12</v>
       </c>
       <c r="C639">
-        <v>1920</v>
+        <v>1927</v>
       </c>
       <c r="D639">
         <v>429</v>
       </c>
       <c r="E639">
-        <v>9396908</v>
+        <v>9440482</v>
       </c>
       <c r="F639" t="s">
         <v>27</v>
@@ -23535,13 +23535,13 @@
         <v>12</v>
       </c>
       <c r="C641">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D641">
         <v>191</v>
       </c>
       <c r="E641">
-        <v>2892687</v>
+        <v>2894513</v>
       </c>
       <c r="F641" t="s">
         <v>27</v>
@@ -23570,13 +23570,13 @@
         <v>12</v>
       </c>
       <c r="C642">
-        <v>37912</v>
+        <v>38021</v>
       </c>
       <c r="D642">
-        <v>9267</v>
+        <v>9268</v>
       </c>
       <c r="E642">
-        <v>66940726</v>
+        <v>67315907</v>
       </c>
       <c r="F642" t="s">
         <v>27</v>
@@ -23710,13 +23710,13 @@
         <v>12</v>
       </c>
       <c r="C646">
-        <v>13264</v>
+        <v>13332</v>
       </c>
       <c r="D646">
         <v>2895</v>
       </c>
       <c r="E646">
-        <v>58939056</v>
+        <v>59506434</v>
       </c>
       <c r="F646" t="s">
         <v>27</v>
@@ -23780,13 +23780,13 @@
         <v>12</v>
       </c>
       <c r="C648">
-        <v>5995</v>
+        <v>6024</v>
       </c>
       <c r="D648">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="E648">
-        <v>28327818</v>
+        <v>28603023</v>
       </c>
       <c r="F648" t="s">
         <v>27</v>
@@ -23815,13 +23815,13 @@
         <v>12</v>
       </c>
       <c r="C649">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D649">
         <v>272</v>
       </c>
       <c r="E649">
-        <v>3262098</v>
+        <v>3263598</v>
       </c>
       <c r="F649" t="s">
         <v>27</v>
@@ -23850,13 +23850,13 @@
         <v>12</v>
       </c>
       <c r="C650">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="D650">
         <v>175</v>
       </c>
       <c r="E650">
-        <v>2845509</v>
+        <v>2872542</v>
       </c>
       <c r="F650" t="s">
         <v>27</v>
@@ -23885,13 +23885,13 @@
         <v>12</v>
       </c>
       <c r="C651">
-        <v>142678</v>
+        <v>143056</v>
       </c>
       <c r="D651">
-        <v>35928</v>
+        <v>35933</v>
       </c>
       <c r="E651">
-        <v>238681517</v>
+        <v>239525600</v>
       </c>
       <c r="F651" t="s">
         <v>27</v>
@@ -23920,13 +23920,13 @@
         <v>12</v>
       </c>
       <c r="C652">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D652">
         <v>25</v>
       </c>
       <c r="E652">
-        <v>232088</v>
+        <v>238640</v>
       </c>
       <c r="F652" t="s">
         <v>27</v>
@@ -24060,13 +24060,13 @@
         <v>12</v>
       </c>
       <c r="C656">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D656">
         <v>107</v>
       </c>
       <c r="E656">
-        <v>3860618</v>
+        <v>3882568</v>
       </c>
       <c r="F656" t="s">
         <v>27</v>
@@ -24130,13 +24130,13 @@
         <v>12</v>
       </c>
       <c r="C658">
-        <v>60147</v>
+        <v>60349</v>
       </c>
       <c r="D658">
-        <v>14223</v>
+        <v>14225</v>
       </c>
       <c r="E658">
-        <v>267052157</v>
+        <v>268733723</v>
       </c>
       <c r="F658" t="s">
         <v>27</v>
@@ -24165,13 +24165,13 @@
         <v>12</v>
       </c>
       <c r="C659">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D659">
         <v>35</v>
       </c>
       <c r="E659">
-        <v>2809323</v>
+        <v>2829730</v>
       </c>
       <c r="F659" t="s">
         <v>27</v>
@@ -24235,13 +24235,13 @@
         <v>12</v>
       </c>
       <c r="C661">
-        <v>32224</v>
+        <v>32338</v>
       </c>
       <c r="D661">
         <v>7046</v>
       </c>
       <c r="E661">
-        <v>145639865</v>
+        <v>146680813</v>
       </c>
       <c r="F661" t="s">
         <v>27</v>
@@ -24340,13 +24340,13 @@
         <v>12</v>
       </c>
       <c r="C664">
-        <v>6665</v>
+        <v>6714</v>
       </c>
       <c r="D664">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="E664">
-        <v>38229081</v>
+        <v>38672385</v>
       </c>
       <c r="F664" t="s">
         <v>27</v>
@@ -24410,13 +24410,13 @@
         <v>12</v>
       </c>
       <c r="C666">
-        <v>3856</v>
+        <v>3881</v>
       </c>
       <c r="D666">
         <v>792</v>
       </c>
       <c r="E666">
-        <v>13503862</v>
+        <v>13614192</v>
       </c>
       <c r="F666" t="s">
         <v>27</v>
@@ -24445,13 +24445,13 @@
         <v>12</v>
       </c>
       <c r="C667">
-        <v>21484</v>
+        <v>21534</v>
       </c>
       <c r="D667">
-        <v>5314</v>
+        <v>5315</v>
       </c>
       <c r="E667">
-        <v>36264626</v>
+        <v>36383800</v>
       </c>
       <c r="F667" t="s">
         <v>27</v>
@@ -24515,13 +24515,13 @@
         <v>12</v>
       </c>
       <c r="C669">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D669">
         <v>42</v>
       </c>
       <c r="E669">
-        <v>1064326</v>
+        <v>1084777</v>
       </c>
       <c r="F669" t="s">
         <v>27</v>
@@ -24550,13 +24550,13 @@
         <v>12</v>
       </c>
       <c r="C670">
-        <v>9280</v>
+        <v>9325</v>
       </c>
       <c r="D670">
         <v>2202</v>
       </c>
       <c r="E670">
-        <v>42339967</v>
+        <v>42900895</v>
       </c>
       <c r="F670" t="s">
         <v>27</v>
@@ -24585,13 +24585,13 @@
         <v>12</v>
       </c>
       <c r="C671">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D671">
         <v>7</v>
       </c>
       <c r="E671">
-        <v>296545</v>
+        <v>306545</v>
       </c>
       <c r="F671" t="s">
         <v>27</v>
@@ -24620,13 +24620,13 @@
         <v>12</v>
       </c>
       <c r="C672">
-        <v>3818</v>
+        <v>3838</v>
       </c>
       <c r="D672">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E672">
-        <v>16492602</v>
+        <v>16677195</v>
       </c>
       <c r="F672" t="s">
         <v>27</v>
@@ -24690,13 +24690,13 @@
         <v>12</v>
       </c>
       <c r="C674">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D674">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E674">
-        <v>2931429</v>
+        <v>2935877</v>
       </c>
       <c r="F674" t="s">
         <v>27</v>
@@ -24725,13 +24725,13 @@
         <v>12</v>
       </c>
       <c r="C675">
-        <v>33917</v>
+        <v>34003</v>
       </c>
       <c r="D675">
-        <v>8703</v>
+        <v>8704</v>
       </c>
       <c r="E675">
-        <v>57483724</v>
+        <v>57678864</v>
       </c>
       <c r="F675" t="s">
         <v>27</v>
@@ -24865,13 +24865,13 @@
         <v>12</v>
       </c>
       <c r="C679">
-        <v>15945</v>
+        <v>16009</v>
       </c>
       <c r="D679">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="E679">
-        <v>74366198</v>
+        <v>74798890</v>
       </c>
       <c r="F679" t="s">
         <v>27</v>
@@ -24900,13 +24900,13 @@
         <v>12</v>
       </c>
       <c r="C680">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D680">
         <v>12</v>
       </c>
       <c r="E680">
-        <v>1034627</v>
+        <v>1045824</v>
       </c>
       <c r="F680" t="s">
         <v>27</v>
@@ -24935,13 +24935,13 @@
         <v>12</v>
       </c>
       <c r="C681">
-        <v>5497</v>
+        <v>5505</v>
       </c>
       <c r="D681">
         <v>1224</v>
       </c>
       <c r="E681">
-        <v>29819483</v>
+        <v>29947130</v>
       </c>
       <c r="F681" t="s">
         <v>27</v>
@@ -24970,13 +24970,13 @@
         <v>12</v>
       </c>
       <c r="C682">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D682">
         <v>239</v>
       </c>
       <c r="E682">
-        <v>1408914</v>
+        <v>1410414</v>
       </c>
       <c r="F682" t="s">
         <v>27</v>
@@ -25040,13 +25040,13 @@
         <v>12</v>
       </c>
       <c r="C684">
-        <v>21518</v>
+        <v>21579</v>
       </c>
       <c r="D684">
         <v>5575</v>
       </c>
       <c r="E684">
-        <v>35609187</v>
+        <v>35753373</v>
       </c>
       <c r="F684" t="s">
         <v>27</v>
@@ -25145,13 +25145,13 @@
         <v>12</v>
       </c>
       <c r="C687">
-        <v>9182</v>
+        <v>9216</v>
       </c>
       <c r="D687">
         <v>2177</v>
       </c>
       <c r="E687">
-        <v>37478071</v>
+        <v>37880691</v>
       </c>
       <c r="F687" t="s">
         <v>27</v>
@@ -25215,13 +25215,13 @@
         <v>12</v>
       </c>
       <c r="C689">
-        <v>3734</v>
+        <v>3746</v>
       </c>
       <c r="D689">
         <v>869</v>
       </c>
       <c r="E689">
-        <v>16484692</v>
+        <v>16588572</v>
       </c>
       <c r="F689" t="s">
         <v>27</v>
@@ -25250,13 +25250,13 @@
         <v>12</v>
       </c>
       <c r="C690">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D690">
         <v>197</v>
       </c>
       <c r="E690">
-        <v>1780196</v>
+        <v>1790196</v>
       </c>
       <c r="F690" t="s">
         <v>27</v>
@@ -25285,13 +25285,13 @@
         <v>12</v>
       </c>
       <c r="C691">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D691">
         <v>169</v>
       </c>
       <c r="E691">
-        <v>2726426</v>
+        <v>2729406</v>
       </c>
       <c r="F691" t="s">
         <v>27</v>
@@ -25320,13 +25320,13 @@
         <v>12</v>
       </c>
       <c r="C692">
-        <v>57149</v>
+        <v>57306</v>
       </c>
       <c r="D692">
-        <v>14665</v>
+        <v>14667</v>
       </c>
       <c r="E692">
-        <v>94583876</v>
+        <v>94994910</v>
       </c>
       <c r="F692" t="s">
         <v>27</v>
@@ -25390,13 +25390,13 @@
         <v>12</v>
       </c>
       <c r="C694">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D694">
         <v>80</v>
       </c>
       <c r="E694">
-        <v>2697669</v>
+        <v>2717669</v>
       </c>
       <c r="F694" t="s">
         <v>27</v>
@@ -25425,13 +25425,13 @@
         <v>12</v>
       </c>
       <c r="C695">
-        <v>30219</v>
+        <v>30361</v>
       </c>
       <c r="D695">
-        <v>6845</v>
+        <v>6848</v>
       </c>
       <c r="E695">
-        <v>137731722</v>
+        <v>138986968</v>
       </c>
       <c r="F695" t="s">
         <v>27</v>
@@ -25460,13 +25460,13 @@
         <v>12</v>
       </c>
       <c r="C696">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D696">
         <v>23</v>
       </c>
       <c r="E696">
-        <v>2703355</v>
+        <v>2732533</v>
       </c>
       <c r="F696" t="s">
         <v>27</v>
@@ -25495,13 +25495,13 @@
         <v>12</v>
       </c>
       <c r="C697">
-        <v>11327</v>
+        <v>11368</v>
       </c>
       <c r="D697">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="E697">
-        <v>56260181</v>
+        <v>56618458</v>
       </c>
       <c r="F697" t="s">
         <v>27</v>
@@ -25565,13 +25565,13 @@
         <v>12</v>
       </c>
       <c r="C699">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="D699">
         <v>523</v>
       </c>
       <c r="E699">
-        <v>3332669</v>
+        <v>3348682</v>
       </c>
       <c r="F699" t="s">
         <v>27</v>
@@ -25600,13 +25600,13 @@
         <v>12</v>
       </c>
       <c r="C700">
-        <v>1868</v>
+        <v>1878</v>
       </c>
       <c r="D700">
         <v>402</v>
       </c>
       <c r="E700">
-        <v>6053223</v>
+        <v>6106358</v>
       </c>
       <c r="F700" t="s">
         <v>27</v>
@@ -25670,13 +25670,13 @@
         <v>12</v>
       </c>
       <c r="C702">
-        <v>23123</v>
+        <v>23191</v>
       </c>
       <c r="D702">
-        <v>5877</v>
+        <v>5879</v>
       </c>
       <c r="E702">
-        <v>40619511</v>
+        <v>40834415</v>
       </c>
       <c r="F702" t="s">
         <v>27</v>
@@ -25740,13 +25740,13 @@
         <v>12</v>
       </c>
       <c r="C704">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D704">
         <v>39</v>
       </c>
       <c r="E704">
-        <v>1417997</v>
+        <v>1426895</v>
       </c>
       <c r="F704" t="s">
         <v>27</v>
@@ -25775,13 +25775,13 @@
         <v>12</v>
       </c>
       <c r="C705">
-        <v>9986</v>
+        <v>10039</v>
       </c>
       <c r="D705">
         <v>2481</v>
       </c>
       <c r="E705">
-        <v>43631026</v>
+        <v>44189708</v>
       </c>
       <c r="F705" t="s">
         <v>27</v>
@@ -25880,13 +25880,13 @@
         <v>12</v>
       </c>
       <c r="C708">
-        <v>2935</v>
+        <v>2945</v>
       </c>
       <c r="D708">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E708">
-        <v>15834318</v>
+        <v>15944477</v>
       </c>
       <c r="F708" t="s">
         <v>27</v>
@@ -25915,13 +25915,13 @@
         <v>12</v>
       </c>
       <c r="C709">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D709">
         <v>106</v>
       </c>
       <c r="E709">
-        <v>572411</v>
+        <v>579586</v>
       </c>
       <c r="F709" t="s">
         <v>27</v>
@@ -25950,13 +25950,13 @@
         <v>12</v>
       </c>
       <c r="C710">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="D710">
         <v>231</v>
       </c>
       <c r="E710">
-        <v>3776944</v>
+        <v>3808357</v>
       </c>
       <c r="F710" t="s">
         <v>27</v>
@@ -25985,13 +25985,13 @@
         <v>12</v>
       </c>
       <c r="C711">
-        <v>13209</v>
+        <v>13252</v>
       </c>
       <c r="D711">
         <v>3458</v>
       </c>
       <c r="E711">
-        <v>20279491</v>
+        <v>20366912</v>
       </c>
       <c r="F711" t="s">
         <v>28</v>
@@ -26055,13 +26055,13 @@
         <v>12</v>
       </c>
       <c r="C713">
-        <v>4148</v>
+        <v>4165</v>
       </c>
       <c r="D713">
         <v>936</v>
       </c>
       <c r="E713">
-        <v>18393838</v>
+        <v>18543942</v>
       </c>
       <c r="F713" t="s">
         <v>28</v>
@@ -26125,13 +26125,13 @@
         <v>12</v>
       </c>
       <c r="C715">
-        <v>2614</v>
+        <v>2627</v>
       </c>
       <c r="D715">
         <v>564</v>
       </c>
       <c r="E715">
-        <v>11098826</v>
+        <v>11166721</v>
       </c>
       <c r="F715" t="s">
         <v>28</v>
@@ -26230,13 +26230,13 @@
         <v>12</v>
       </c>
       <c r="C718">
-        <v>33103</v>
+        <v>33224</v>
       </c>
       <c r="D718">
-        <v>7865</v>
+        <v>7868</v>
       </c>
       <c r="E718">
-        <v>56620915</v>
+        <v>56979076</v>
       </c>
       <c r="F718" t="s">
         <v>28</v>
@@ -26300,13 +26300,13 @@
         <v>12</v>
       </c>
       <c r="C720">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D720">
         <v>9</v>
       </c>
       <c r="E720">
-        <v>61072</v>
+        <v>73854</v>
       </c>
       <c r="F720" t="s">
         <v>28</v>
@@ -26335,13 +26335,13 @@
         <v>12</v>
       </c>
       <c r="C721">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D721">
         <v>25</v>
       </c>
       <c r="E721">
-        <v>1163990</v>
+        <v>1173990</v>
       </c>
       <c r="F721" t="s">
         <v>28</v>
@@ -26370,13 +26370,13 @@
         <v>12</v>
       </c>
       <c r="C722">
-        <v>13149</v>
+        <v>13216</v>
       </c>
       <c r="D722">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="E722">
-        <v>60466725</v>
+        <v>61024859</v>
       </c>
       <c r="F722" t="s">
         <v>28</v>
@@ -26440,13 +26440,13 @@
         <v>12</v>
       </c>
       <c r="C724">
-        <v>8408</v>
+        <v>8451</v>
       </c>
       <c r="D724">
         <v>1685</v>
       </c>
       <c r="E724">
-        <v>35621375</v>
+        <v>35980543</v>
       </c>
       <c r="F724" t="s">
         <v>28</v>
@@ -26510,13 +26510,13 @@
         <v>12</v>
       </c>
       <c r="C726">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="D726">
         <v>232</v>
       </c>
       <c r="E726">
-        <v>3141190</v>
+        <v>3208237</v>
       </c>
       <c r="F726" t="s">
         <v>28</v>
@@ -26545,13 +26545,13 @@
         <v>12</v>
       </c>
       <c r="C727">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D727">
         <v>168</v>
       </c>
       <c r="E727">
-        <v>3333582</v>
+        <v>3364089</v>
       </c>
       <c r="F727" t="s">
         <v>28</v>
@@ -26580,13 +26580,13 @@
         <v>12</v>
       </c>
       <c r="C728">
-        <v>23260</v>
+        <v>23334</v>
       </c>
       <c r="D728">
-        <v>5691</v>
+        <v>5692</v>
       </c>
       <c r="E728">
-        <v>43385608</v>
+        <v>43650886</v>
       </c>
       <c r="F728" t="s">
         <v>28</v>
@@ -26650,13 +26650,13 @@
         <v>12</v>
       </c>
       <c r="C730">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D730">
         <v>46</v>
       </c>
       <c r="E730">
-        <v>1224342</v>
+        <v>1235842</v>
       </c>
       <c r="F730" t="s">
         <v>28</v>
@@ -26685,13 +26685,13 @@
         <v>12</v>
       </c>
       <c r="C731">
-        <v>9316</v>
+        <v>9371</v>
       </c>
       <c r="D731">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="E731">
-        <v>40521159</v>
+        <v>40935855</v>
       </c>
       <c r="F731" t="s">
         <v>28</v>
@@ -26755,13 +26755,13 @@
         <v>12</v>
       </c>
       <c r="C733">
-        <v>3263</v>
+        <v>3277</v>
       </c>
       <c r="D733">
         <v>661</v>
       </c>
       <c r="E733">
-        <v>16310967</v>
+        <v>16503370</v>
       </c>
       <c r="F733" t="s">
         <v>28</v>
@@ -26825,13 +26825,13 @@
         <v>12</v>
       </c>
       <c r="C735">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="D735">
         <v>401</v>
       </c>
       <c r="E735">
-        <v>1579213</v>
+        <v>1591871</v>
       </c>
       <c r="F735" t="s">
         <v>28</v>
@@ -26860,13 +26860,13 @@
         <v>12</v>
       </c>
       <c r="C736">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D736">
         <v>154</v>
       </c>
       <c r="E736">
-        <v>2748919</v>
+        <v>2766988</v>
       </c>
       <c r="F736" t="s">
         <v>28</v>
@@ -26895,13 +26895,13 @@
         <v>12</v>
       </c>
       <c r="C737">
-        <v>66146</v>
+        <v>66287</v>
       </c>
       <c r="D737">
-        <v>15566</v>
+        <v>15570</v>
       </c>
       <c r="E737">
-        <v>106110085</v>
+        <v>106473326</v>
       </c>
       <c r="F737" t="s">
         <v>28</v>
@@ -27000,13 +27000,13 @@
         <v>12</v>
       </c>
       <c r="C740">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D740">
         <v>41</v>
       </c>
       <c r="E740">
-        <v>1400391</v>
+        <v>1413837</v>
       </c>
       <c r="F740" t="s">
         <v>28</v>
@@ -27035,13 +27035,13 @@
         <v>12</v>
       </c>
       <c r="C741">
-        <v>30615</v>
+        <v>30746</v>
       </c>
       <c r="D741">
         <v>6834</v>
       </c>
       <c r="E741">
-        <v>124496793</v>
+        <v>125586592</v>
       </c>
       <c r="F741" t="s">
         <v>28</v>
@@ -27105,13 +27105,13 @@
         <v>12</v>
       </c>
       <c r="C743">
-        <v>15110</v>
+        <v>15177</v>
       </c>
       <c r="D743">
         <v>3217</v>
       </c>
       <c r="E743">
-        <v>63039849</v>
+        <v>63547448</v>
       </c>
       <c r="F743" t="s">
         <v>28</v>
@@ -27175,13 +27175,13 @@
         <v>12</v>
       </c>
       <c r="C745">
-        <v>1391</v>
+        <v>1398</v>
       </c>
       <c r="D745">
         <v>382</v>
       </c>
       <c r="E745">
-        <v>4941837</v>
+        <v>5007834</v>
       </c>
       <c r="F745" t="s">
         <v>28</v>
@@ -27210,13 +27210,13 @@
         <v>12</v>
       </c>
       <c r="C746">
-        <v>2245</v>
+        <v>2260</v>
       </c>
       <c r="D746">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E746">
-        <v>6535892</v>
+        <v>6620379</v>
       </c>
       <c r="F746" t="s">
         <v>28</v>
@@ -27245,13 +27245,13 @@
         <v>12</v>
       </c>
       <c r="C747">
-        <v>14968</v>
+        <v>15015</v>
       </c>
       <c r="D747">
-        <v>3834</v>
+        <v>3835</v>
       </c>
       <c r="E747">
-        <v>25819487</v>
+        <v>25939294</v>
       </c>
       <c r="F747" t="s">
         <v>28</v>
@@ -27280,13 +27280,13 @@
         <v>12</v>
       </c>
       <c r="C748">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D748">
         <v>11</v>
       </c>
       <c r="E748">
-        <v>146677</v>
+        <v>149325</v>
       </c>
       <c r="F748" t="s">
         <v>28</v>
@@ -27315,13 +27315,13 @@
         <v>12</v>
       </c>
       <c r="C749">
-        <v>5848</v>
+        <v>5871</v>
       </c>
       <c r="D749">
         <v>1397</v>
       </c>
       <c r="E749">
-        <v>23223872</v>
+        <v>23359346</v>
       </c>
       <c r="F749" t="s">
         <v>28</v>
@@ -27385,13 +27385,13 @@
         <v>12</v>
       </c>
       <c r="C751">
-        <v>2855</v>
+        <v>2864</v>
       </c>
       <c r="D751">
         <v>618</v>
       </c>
       <c r="E751">
-        <v>11793378</v>
+        <v>11868914</v>
       </c>
       <c r="F751" t="s">
         <v>28</v>
@@ -27420,13 +27420,13 @@
         <v>12</v>
       </c>
       <c r="C752">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="D752">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E752">
-        <v>4271982</v>
+        <v>4324659</v>
       </c>
       <c r="F752" t="s">
         <v>28</v>
@@ -27455,13 +27455,13 @@
         <v>12</v>
       </c>
       <c r="C753">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D753">
         <v>124</v>
       </c>
       <c r="E753">
-        <v>2336058</v>
+        <v>2346058</v>
       </c>
       <c r="F753" t="s">
         <v>28</v>
@@ -27490,13 +27490,13 @@
         <v>12</v>
       </c>
       <c r="C754">
-        <v>115857</v>
+        <v>116149</v>
       </c>
       <c r="D754">
-        <v>28402</v>
+        <v>28407</v>
       </c>
       <c r="E754">
-        <v>178753969</v>
+        <v>179383569</v>
       </c>
       <c r="F754" t="s">
         <v>28</v>
@@ -27595,13 +27595,13 @@
         <v>12</v>
       </c>
       <c r="C757">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D757">
         <v>31</v>
       </c>
       <c r="E757">
-        <v>988604</v>
+        <v>997468</v>
       </c>
       <c r="F757" t="s">
         <v>28</v>
@@ -27665,13 +27665,13 @@
         <v>12</v>
       </c>
       <c r="C759">
-        <v>48663</v>
+        <v>48849</v>
       </c>
       <c r="D759">
-        <v>11134</v>
+        <v>11138</v>
       </c>
       <c r="E759">
-        <v>211875048</v>
+        <v>213392035</v>
       </c>
       <c r="F759" t="s">
         <v>28</v>
@@ -27700,13 +27700,13 @@
         <v>12</v>
       </c>
       <c r="C760">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D760">
         <v>33</v>
       </c>
       <c r="E760">
-        <v>2169495</v>
+        <v>2170995</v>
       </c>
       <c r="F760" t="s">
         <v>28</v>
@@ -27735,13 +27735,13 @@
         <v>12</v>
       </c>
       <c r="C761">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D761">
         <v>4</v>
       </c>
       <c r="E761">
-        <v>303566</v>
+        <v>407959</v>
       </c>
       <c r="F761" t="s">
         <v>28</v>
@@ -27770,13 +27770,13 @@
         <v>12</v>
       </c>
       <c r="C762">
-        <v>30342</v>
+        <v>30464</v>
       </c>
       <c r="D762">
-        <v>6687</v>
+        <v>6689</v>
       </c>
       <c r="E762">
-        <v>123741255</v>
+        <v>124744774</v>
       </c>
       <c r="F762" t="s">
         <v>28</v>
@@ -27840,13 +27840,13 @@
         <v>12</v>
       </c>
       <c r="C764">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D764">
         <v>272</v>
       </c>
       <c r="E764">
-        <v>1446781</v>
+        <v>1448732</v>
       </c>
       <c r="F764" t="s">
         <v>28</v>
@@ -27910,13 +27910,13 @@
         <v>12</v>
       </c>
       <c r="C766">
-        <v>4245</v>
+        <v>4264</v>
       </c>
       <c r="D766">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E766">
-        <v>14366449</v>
+        <v>14434653</v>
       </c>
       <c r="F766" t="s">
         <v>28</v>
@@ -27945,13 +27945,13 @@
         <v>12</v>
       </c>
       <c r="C767">
-        <v>24337</v>
+        <v>24393</v>
       </c>
       <c r="D767">
         <v>5367</v>
       </c>
       <c r="E767">
-        <v>47494400</v>
+        <v>47735466</v>
       </c>
       <c r="F767" t="s">
         <v>28</v>
@@ -28050,13 +28050,13 @@
         <v>12</v>
       </c>
       <c r="C770">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D770">
         <v>30</v>
       </c>
       <c r="E770">
-        <v>1458791</v>
+        <v>1491943</v>
       </c>
       <c r="F770" t="s">
         <v>28</v>
@@ -28085,13 +28085,13 @@
         <v>12</v>
       </c>
       <c r="C771">
-        <v>10710</v>
+        <v>10760</v>
       </c>
       <c r="D771">
         <v>2027</v>
       </c>
       <c r="E771">
-        <v>55766692</v>
+        <v>56306945</v>
       </c>
       <c r="F771" t="s">
         <v>28</v>
@@ -28190,13 +28190,13 @@
         <v>12</v>
       </c>
       <c r="C774">
-        <v>3504</v>
+        <v>3518</v>
       </c>
       <c r="D774">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E774">
-        <v>19145532</v>
+        <v>19303192</v>
       </c>
       <c r="F774" t="s">
         <v>28</v>
@@ -28225,13 +28225,13 @@
         <v>12</v>
       </c>
       <c r="C775">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D775">
         <v>4</v>
       </c>
       <c r="E775">
-        <v>191505</v>
+        <v>201505</v>
       </c>
       <c r="F775" t="s">
         <v>28</v>
@@ -28260,13 +28260,13 @@
         <v>12</v>
       </c>
       <c r="C776">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D776">
         <v>80</v>
       </c>
       <c r="E776">
-        <v>485549</v>
+        <v>488549</v>
       </c>
       <c r="F776" t="s">
         <v>28</v>
@@ -28330,13 +28330,13 @@
         <v>12</v>
       </c>
       <c r="C778">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D778">
         <v>143</v>
       </c>
       <c r="E778">
-        <v>3165993</v>
+        <v>3178735</v>
       </c>
       <c r="F778" t="s">
         <v>28</v>
@@ -28365,13 +28365,13 @@
         <v>12</v>
       </c>
       <c r="C779">
-        <v>117137</v>
+        <v>117362</v>
       </c>
       <c r="D779">
-        <v>27956</v>
+        <v>27958</v>
       </c>
       <c r="E779">
-        <v>183101116</v>
+        <v>183601261</v>
       </c>
       <c r="F779" t="s">
         <v>28</v>
@@ -28540,13 +28540,13 @@
         <v>12</v>
       </c>
       <c r="C784">
-        <v>53239</v>
+        <v>53430</v>
       </c>
       <c r="D784">
-        <v>11474</v>
+        <v>11475</v>
       </c>
       <c r="E784">
-        <v>234116992</v>
+        <v>235607509</v>
       </c>
       <c r="F784" t="s">
         <v>28</v>
@@ -28575,13 +28575,13 @@
         <v>12</v>
       </c>
       <c r="C785">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D785">
         <v>24</v>
       </c>
       <c r="E785">
-        <v>4033011</v>
+        <v>4087144</v>
       </c>
       <c r="F785" t="s">
         <v>28</v>
@@ -28645,13 +28645,13 @@
         <v>12</v>
       </c>
       <c r="C787">
-        <v>36512</v>
+        <v>36622</v>
       </c>
       <c r="D787">
-        <v>7347</v>
+        <v>7348</v>
       </c>
       <c r="E787">
-        <v>156298031</v>
+        <v>157349283</v>
       </c>
       <c r="F787" t="s">
         <v>28</v>
@@ -28680,13 +28680,13 @@
         <v>12</v>
       </c>
       <c r="C788">
-        <v>2119</v>
+        <v>2126</v>
       </c>
       <c r="D788">
         <v>574</v>
       </c>
       <c r="E788">
-        <v>7636073</v>
+        <v>7667933</v>
       </c>
       <c r="F788" t="s">
         <v>28</v>
@@ -28715,13 +28715,13 @@
         <v>12</v>
       </c>
       <c r="C789">
-        <v>4251</v>
+        <v>4269</v>
       </c>
       <c r="D789">
         <v>755</v>
       </c>
       <c r="E789">
-        <v>13456839</v>
+        <v>13593987</v>
       </c>
       <c r="F789" t="s">
         <v>28</v>
@@ -28750,13 +28750,13 @@
         <v>12</v>
       </c>
       <c r="C790">
-        <v>15419</v>
+        <v>15478</v>
       </c>
       <c r="D790">
-        <v>3880</v>
+        <v>3881</v>
       </c>
       <c r="E790">
-        <v>27392492</v>
+        <v>27648553</v>
       </c>
       <c r="F790" t="s">
         <v>28</v>
@@ -28820,13 +28820,13 @@
         <v>12</v>
       </c>
       <c r="C792">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D792">
         <v>20</v>
       </c>
       <c r="E792">
-        <v>676355</v>
+        <v>692302</v>
       </c>
       <c r="F792" t="s">
         <v>28</v>
@@ -28855,13 +28855,13 @@
         <v>12</v>
       </c>
       <c r="C793">
-        <v>6033</v>
+        <v>6068</v>
       </c>
       <c r="D793">
         <v>1312</v>
       </c>
       <c r="E793">
-        <v>25790280</v>
+        <v>26153023</v>
       </c>
       <c r="F793" t="s">
         <v>28</v>
@@ -28890,13 +28890,13 @@
         <v>12</v>
       </c>
       <c r="C794">
-        <v>2718</v>
+        <v>2733</v>
       </c>
       <c r="D794">
         <v>572</v>
       </c>
       <c r="E794">
-        <v>14123740</v>
+        <v>14329300</v>
       </c>
       <c r="F794" t="s">
         <v>28</v>
@@ -28925,13 +28925,13 @@
         <v>12</v>
       </c>
       <c r="C795">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D795">
         <v>200</v>
       </c>
       <c r="E795">
-        <v>1652160</v>
+        <v>1662160</v>
       </c>
       <c r="F795" t="s">
         <v>28</v>
@@ -28960,13 +28960,13 @@
         <v>12</v>
       </c>
       <c r="C796">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D796">
         <v>110</v>
       </c>
       <c r="E796">
-        <v>2103534</v>
+        <v>2121424</v>
       </c>
       <c r="F796" t="s">
         <v>28</v>
@@ -28995,13 +28995,13 @@
         <v>12</v>
       </c>
       <c r="C797">
-        <v>7711</v>
+        <v>7729</v>
       </c>
       <c r="D797">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="E797">
-        <v>15804941</v>
+        <v>15843165</v>
       </c>
       <c r="F797" t="s">
         <v>28</v>
@@ -29030,13 +29030,13 @@
         <v>12</v>
       </c>
       <c r="C798">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D798">
         <v>19</v>
       </c>
       <c r="E798">
-        <v>735105</v>
+        <v>737278</v>
       </c>
       <c r="F798" t="s">
         <v>28</v>
@@ -29065,13 +29065,13 @@
         <v>12</v>
       </c>
       <c r="C799">
-        <v>2847</v>
+        <v>2855</v>
       </c>
       <c r="D799">
         <v>626</v>
       </c>
       <c r="E799">
-        <v>13805667</v>
+        <v>13888679</v>
       </c>
       <c r="F799" t="s">
         <v>28</v>
@@ -29135,13 +29135,13 @@
         <v>12</v>
       </c>
       <c r="C801">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D801">
         <v>203</v>
       </c>
       <c r="E801">
-        <v>4870618</v>
+        <v>4883404</v>
       </c>
       <c r="F801" t="s">
         <v>28</v>
@@ -29205,13 +29205,13 @@
         <v>12</v>
       </c>
       <c r="C803">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D803">
         <v>72</v>
       </c>
       <c r="E803">
-        <v>1009562</v>
+        <v>1015096</v>
       </c>
       <c r="F803" t="s">
         <v>28</v>
@@ -29240,13 +29240,13 @@
         <v>12</v>
       </c>
       <c r="C804">
-        <v>44314</v>
+        <v>44429</v>
       </c>
       <c r="D804">
         <v>10610</v>
       </c>
       <c r="E804">
-        <v>74631696</v>
+        <v>74973358</v>
       </c>
       <c r="F804" t="s">
         <v>28</v>
@@ -29380,13 +29380,13 @@
         <v>12</v>
       </c>
       <c r="C808">
-        <v>19012</v>
+        <v>19103</v>
       </c>
       <c r="D808">
-        <v>4071</v>
+        <v>4072</v>
       </c>
       <c r="E808">
-        <v>85435215</v>
+        <v>86125113</v>
       </c>
       <c r="F808" t="s">
         <v>28</v>
@@ -29415,13 +29415,13 @@
         <v>12</v>
       </c>
       <c r="C809">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D809">
         <v>15</v>
       </c>
       <c r="E809">
-        <v>879175</v>
+        <v>893160</v>
       </c>
       <c r="F809" t="s">
         <v>28</v>
@@ -29450,13 +29450,13 @@
         <v>12</v>
       </c>
       <c r="C810">
-        <v>12442</v>
+        <v>12487</v>
       </c>
       <c r="D810">
         <v>2455</v>
       </c>
       <c r="E810">
-        <v>62575464</v>
+        <v>62918502</v>
       </c>
       <c r="F810" t="s">
         <v>28</v>
@@ -29520,13 +29520,13 @@
         <v>12</v>
       </c>
       <c r="C812">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="D812">
         <v>264</v>
       </c>
       <c r="E812">
-        <v>2894772</v>
+        <v>2904457</v>
       </c>
       <c r="F812" t="s">
         <v>28</v>
@@ -29590,13 +29590,13 @@
         <v>12</v>
       </c>
       <c r="C814">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="D814">
         <v>273</v>
       </c>
       <c r="E814">
-        <v>4367680</v>
+        <v>4390365</v>
       </c>
       <c r="F814" t="s">
         <v>28</v>
@@ -29625,13 +29625,13 @@
         <v>12</v>
       </c>
       <c r="C815">
-        <v>27790</v>
+        <v>27843</v>
       </c>
       <c r="D815">
-        <v>7206</v>
+        <v>7207</v>
       </c>
       <c r="E815">
-        <v>42719997</v>
+        <v>42803017</v>
       </c>
       <c r="F815" t="s">
         <v>28</v>
@@ -29695,13 +29695,13 @@
         <v>12</v>
       </c>
       <c r="C817">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D817">
         <v>21</v>
       </c>
       <c r="E817">
-        <v>719231</v>
+        <v>759231</v>
       </c>
       <c r="F817" t="s">
         <v>28</v>
@@ -29730,13 +29730,13 @@
         <v>12</v>
       </c>
       <c r="C818">
-        <v>11117</v>
+        <v>11174</v>
       </c>
       <c r="D818">
         <v>2804</v>
       </c>
       <c r="E818">
-        <v>43788291</v>
+        <v>44408968</v>
       </c>
       <c r="F818" t="s">
         <v>28</v>
@@ -29800,13 +29800,13 @@
         <v>12</v>
       </c>
       <c r="C820">
-        <v>5550</v>
+        <v>5570</v>
       </c>
       <c r="D820">
         <v>1268</v>
       </c>
       <c r="E820">
-        <v>19981803</v>
+        <v>20128287</v>
       </c>
       <c r="F820" t="s">
         <v>28</v>
@@ -29835,13 +29835,13 @@
         <v>12</v>
       </c>
       <c r="C821">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D821">
         <v>133</v>
       </c>
       <c r="E821">
-        <v>1380633</v>
+        <v>1382133</v>
       </c>
       <c r="F821" t="s">
         <v>28</v>
@@ -29870,13 +29870,13 @@
         <v>12</v>
       </c>
       <c r="C822">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="D822">
         <v>216</v>
       </c>
       <c r="E822">
-        <v>3142693</v>
+        <v>3168385</v>
       </c>
       <c r="F822" t="s">
         <v>28</v>
@@ -29905,13 +29905,13 @@
         <v>12</v>
       </c>
       <c r="C823">
-        <v>18484</v>
+        <v>18522</v>
       </c>
       <c r="D823">
-        <v>4740</v>
+        <v>4743</v>
       </c>
       <c r="E823">
-        <v>29208371</v>
+        <v>29304570</v>
       </c>
       <c r="F823" t="s">
         <v>28</v>
@@ -29975,13 +29975,13 @@
         <v>12</v>
       </c>
       <c r="C825">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D825">
         <v>13</v>
       </c>
       <c r="E825">
-        <v>546435</v>
+        <v>546936</v>
       </c>
       <c r="F825" t="s">
         <v>28</v>
@@ -30010,13 +30010,13 @@
         <v>12</v>
       </c>
       <c r="C826">
-        <v>7108</v>
+        <v>7136</v>
       </c>
       <c r="D826">
         <v>1822</v>
       </c>
       <c r="E826">
-        <v>28350250</v>
+        <v>28558646</v>
       </c>
       <c r="F826" t="s">
         <v>28</v>
@@ -30080,13 +30080,13 @@
         <v>12</v>
       </c>
       <c r="C828">
-        <v>3491</v>
+        <v>3516</v>
       </c>
       <c r="D828">
         <v>800</v>
       </c>
       <c r="E828">
-        <v>13229850</v>
+        <v>13530423</v>
       </c>
       <c r="F828" t="s">
         <v>28</v>
@@ -30150,13 +30150,13 @@
         <v>12</v>
       </c>
       <c r="C830">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D830">
         <v>124</v>
       </c>
       <c r="E830">
-        <v>1933312</v>
+        <v>1965863</v>
       </c>
       <c r="F830" t="s">
         <v>28</v>
@@ -30185,13 +30185,13 @@
         <v>12</v>
       </c>
       <c r="C831">
-        <v>84072</v>
+        <v>84282</v>
       </c>
       <c r="D831">
-        <v>22152</v>
+        <v>22158</v>
       </c>
       <c r="E831">
-        <v>141543178</v>
+        <v>142042280</v>
       </c>
       <c r="F831" t="s">
         <v>29</v>
@@ -30290,13 +30290,13 @@
         <v>12</v>
       </c>
       <c r="C834">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="D834">
         <v>141</v>
       </c>
       <c r="E834">
-        <v>4657196</v>
+        <v>4701065</v>
       </c>
       <c r="F834" t="s">
         <v>29</v>
@@ -30325,13 +30325,13 @@
         <v>12</v>
       </c>
       <c r="C835">
-        <v>48225</v>
+        <v>48409</v>
       </c>
       <c r="D835">
-        <v>11278</v>
+        <v>11280</v>
       </c>
       <c r="E835">
-        <v>218331190</v>
+        <v>220158395</v>
       </c>
       <c r="F835" t="s">
         <v>29</v>
@@ -30360,13 +30360,13 @@
         <v>12</v>
       </c>
       <c r="C836">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D836">
         <v>16</v>
       </c>
       <c r="E836">
-        <v>1033788</v>
+        <v>1105060</v>
       </c>
       <c r="F836" t="s">
         <v>29</v>
@@ -30395,13 +30395,13 @@
         <v>12</v>
       </c>
       <c r="C837">
-        <v>15107</v>
+        <v>15164</v>
       </c>
       <c r="D837">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="E837">
-        <v>79281975</v>
+        <v>79771241</v>
       </c>
       <c r="F837" t="s">
         <v>29</v>
@@ -30430,13 +30430,13 @@
         <v>12</v>
       </c>
       <c r="C838">
-        <v>1167</v>
+        <v>1172</v>
       </c>
       <c r="D838">
         <v>388</v>
       </c>
       <c r="E838">
-        <v>3828640</v>
+        <v>3887121</v>
       </c>
       <c r="F838" t="s">
         <v>29</v>
@@ -30465,13 +30465,13 @@
         <v>12</v>
       </c>
       <c r="C839">
-        <v>2839</v>
+        <v>2856</v>
       </c>
       <c r="D839">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E839">
-        <v>11722664</v>
+        <v>11849358</v>
       </c>
       <c r="F839" t="s">
         <v>29</v>
@@ -30500,13 +30500,13 @@
         <v>12</v>
       </c>
       <c r="C840">
-        <v>41885</v>
+        <v>42048</v>
       </c>
       <c r="D840">
-        <v>10655</v>
+        <v>10656</v>
       </c>
       <c r="E840">
-        <v>74430752</v>
+        <v>74956726</v>
       </c>
       <c r="F840" t="s">
         <v>29</v>
@@ -30570,13 +30570,13 @@
         <v>12</v>
       </c>
       <c r="C842">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D842">
         <v>83</v>
       </c>
       <c r="E842">
-        <v>3797658</v>
+        <v>3853602</v>
       </c>
       <c r="F842" t="s">
         <v>29</v>
@@ -30605,13 +30605,13 @@
         <v>12</v>
       </c>
       <c r="C843">
-        <v>22484</v>
+        <v>22609</v>
       </c>
       <c r="D843">
-        <v>5496</v>
+        <v>5498</v>
       </c>
       <c r="E843">
-        <v>101041084</v>
+        <v>102315617</v>
       </c>
       <c r="F843" t="s">
         <v>29</v>
@@ -30675,13 +30675,13 @@
         <v>12</v>
       </c>
       <c r="C845">
-        <v>5966</v>
+        <v>6001</v>
       </c>
       <c r="D845">
         <v>1324</v>
       </c>
       <c r="E845">
-        <v>29453956</v>
+        <v>29681806</v>
       </c>
       <c r="F845" t="s">
         <v>29</v>
@@ -30745,13 +30745,13 @@
         <v>12</v>
       </c>
       <c r="C847">
-        <v>1369</v>
+        <v>1382</v>
       </c>
       <c r="D847">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E847">
-        <v>5557273</v>
+        <v>5685190</v>
       </c>
       <c r="F847" t="s">
         <v>29</v>
@@ -30780,13 +30780,13 @@
         <v>12</v>
       </c>
       <c r="C848">
-        <v>1862</v>
+        <v>1877</v>
       </c>
       <c r="D848">
         <v>388</v>
       </c>
       <c r="E848">
-        <v>6376000</v>
+        <v>6464974</v>
       </c>
       <c r="F848" t="s">
         <v>29</v>
@@ -30815,13 +30815,13 @@
         <v>12</v>
       </c>
       <c r="C849">
-        <v>13698</v>
+        <v>13733</v>
       </c>
       <c r="D849">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="E849">
-        <v>26232254</v>
+        <v>26360941</v>
       </c>
       <c r="F849" t="s">
         <v>29</v>
@@ -30850,13 +30850,13 @@
         <v>12</v>
       </c>
       <c r="C850">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D850">
         <v>41</v>
       </c>
       <c r="E850">
-        <v>1373947</v>
+        <v>1403947</v>
       </c>
       <c r="F850" t="s">
         <v>29</v>
@@ -30885,13 +30885,13 @@
         <v>12</v>
       </c>
       <c r="C851">
-        <v>6467</v>
+        <v>6500</v>
       </c>
       <c r="D851">
         <v>1689</v>
       </c>
       <c r="E851">
-        <v>27539712</v>
+        <v>27803856</v>
       </c>
       <c r="F851" t="s">
         <v>29</v>
@@ -30920,13 +30920,13 @@
         <v>12</v>
       </c>
       <c r="C852">
-        <v>1578</v>
+        <v>1585</v>
       </c>
       <c r="D852">
         <v>392</v>
       </c>
       <c r="E852">
-        <v>7546296</v>
+        <v>7601646</v>
       </c>
       <c r="F852" t="s">
         <v>29</v>
@@ -30990,13 +30990,13 @@
         <v>12</v>
       </c>
       <c r="C854">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D854">
         <v>135</v>
       </c>
       <c r="E854">
-        <v>2478710</v>
+        <v>2517745</v>
       </c>
       <c r="F854" t="s">
         <v>29</v>
@@ -31025,13 +31025,13 @@
         <v>12</v>
       </c>
       <c r="C855">
-        <v>25200</v>
+        <v>25256</v>
       </c>
       <c r="D855">
-        <v>6304</v>
+        <v>6306</v>
       </c>
       <c r="E855">
-        <v>45924631</v>
+        <v>46100557</v>
       </c>
       <c r="F855" t="s">
         <v>29</v>
@@ -31095,13 +31095,13 @@
         <v>12</v>
       </c>
       <c r="C857">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D857">
         <v>69</v>
       </c>
       <c r="E857">
-        <v>2225416</v>
+        <v>2253961</v>
       </c>
       <c r="F857" t="s">
         <v>29</v>
@@ -31130,13 +31130,13 @@
         <v>12</v>
       </c>
       <c r="C858">
-        <v>11861</v>
+        <v>11908</v>
       </c>
       <c r="D858">
         <v>2855</v>
       </c>
       <c r="E858">
-        <v>53993574</v>
+        <v>54421052</v>
       </c>
       <c r="F858" t="s">
         <v>29</v>
@@ -31200,13 +31200,13 @@
         <v>12</v>
       </c>
       <c r="C860">
-        <v>3595</v>
+        <v>3607</v>
       </c>
       <c r="D860">
         <v>782</v>
       </c>
       <c r="E860">
-        <v>19256563</v>
+        <v>19391560</v>
       </c>
       <c r="F860" t="s">
         <v>29</v>
@@ -31235,13 +31235,13 @@
         <v>12</v>
       </c>
       <c r="C861">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D861">
         <v>96</v>
       </c>
       <c r="E861">
-        <v>713603</v>
+        <v>715993</v>
       </c>
       <c r="F861" t="s">
         <v>29</v>
@@ -31270,13 +31270,13 @@
         <v>12</v>
       </c>
       <c r="C862">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D862">
         <v>161</v>
       </c>
       <c r="E862">
-        <v>3145721</v>
+        <v>3156454</v>
       </c>
       <c r="F862" t="s">
         <v>29</v>
@@ -31305,13 +31305,13 @@
         <v>12</v>
       </c>
       <c r="C863">
-        <v>36562</v>
+        <v>36659</v>
       </c>
       <c r="D863">
         <v>9590</v>
       </c>
       <c r="E863">
-        <v>63718531</v>
+        <v>63993358</v>
       </c>
       <c r="F863" t="s">
         <v>29</v>
@@ -31410,13 +31410,13 @@
         <v>12</v>
       </c>
       <c r="C866">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D866">
         <v>85</v>
       </c>
       <c r="E866">
-        <v>3266593</v>
+        <v>3293032</v>
       </c>
       <c r="F866" t="s">
         <v>29</v>
@@ -31445,13 +31445,13 @@
         <v>12</v>
       </c>
       <c r="C867">
-        <v>23290</v>
+        <v>23383</v>
       </c>
       <c r="D867">
-        <v>5649</v>
+        <v>5650</v>
       </c>
       <c r="E867">
-        <v>111167679</v>
+        <v>112073347</v>
       </c>
       <c r="F867" t="s">
         <v>29</v>
@@ -31480,13 +31480,13 @@
         <v>12</v>
       </c>
       <c r="C868">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D868">
         <v>14</v>
       </c>
       <c r="E868">
-        <v>722481</v>
+        <v>747241</v>
       </c>
       <c r="F868" t="s">
         <v>29</v>
@@ -31515,13 +31515,13 @@
         <v>12</v>
       </c>
       <c r="C869">
-        <v>5702</v>
+        <v>5735</v>
       </c>
       <c r="D869">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E869">
-        <v>34510388</v>
+        <v>34988895</v>
       </c>
       <c r="F869" t="s">
         <v>29</v>
@@ -31585,13 +31585,13 @@
         <v>12</v>
       </c>
       <c r="C871">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D871">
         <v>201</v>
       </c>
       <c r="E871">
-        <v>1536084</v>
+        <v>1546084</v>
       </c>
       <c r="F871" t="s">
         <v>29</v>
@@ -31655,13 +31655,13 @@
         <v>12</v>
       </c>
       <c r="C873">
-        <v>18393</v>
+        <v>18458</v>
       </c>
       <c r="D873">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="E873">
-        <v>34976229</v>
+        <v>35162020</v>
       </c>
       <c r="F873" t="s">
         <v>30</v>
@@ -31725,13 +31725,13 @@
         <v>12</v>
       </c>
       <c r="C875">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D875">
         <v>9</v>
       </c>
       <c r="E875">
-        <v>172877</v>
+        <v>182877</v>
       </c>
       <c r="F875" t="s">
         <v>30</v>
@@ -31795,13 +31795,13 @@
         <v>12</v>
       </c>
       <c r="C877">
-        <v>7924</v>
+        <v>7952</v>
       </c>
       <c r="D877">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="E877">
-        <v>36744891</v>
+        <v>36975649</v>
       </c>
       <c r="F877" t="s">
         <v>30</v>
@@ -31865,13 +31865,13 @@
         <v>12</v>
       </c>
       <c r="C879">
-        <v>4068</v>
+        <v>4106</v>
       </c>
       <c r="D879">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E879">
-        <v>19850938</v>
+        <v>20129873</v>
       </c>
       <c r="F879" t="s">
         <v>30</v>
@@ -32005,13 +32005,13 @@
         <v>12</v>
       </c>
       <c r="C883">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="D883">
         <v>133</v>
       </c>
       <c r="E883">
-        <v>1928653</v>
+        <v>1951130</v>
       </c>
       <c r="F883" t="s">
         <v>30</v>
@@ -32040,13 +32040,13 @@
         <v>12</v>
       </c>
       <c r="C884">
-        <v>143694</v>
+        <v>144060</v>
       </c>
       <c r="D884">
-        <v>30538</v>
+        <v>30548</v>
       </c>
       <c r="E884">
-        <v>238657617</v>
+        <v>239525180</v>
       </c>
       <c r="F884" t="s">
         <v>30</v>
@@ -32215,13 +32215,13 @@
         <v>12</v>
       </c>
       <c r="C889">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="D889">
         <v>143</v>
       </c>
       <c r="E889">
-        <v>6730193</v>
+        <v>6843810</v>
       </c>
       <c r="F889" t="s">
         <v>30</v>
@@ -32285,13 +32285,13 @@
         <v>12</v>
       </c>
       <c r="C891">
-        <v>66077</v>
+        <v>66336</v>
       </c>
       <c r="D891">
-        <v>13097</v>
+        <v>13099</v>
       </c>
       <c r="E891">
-        <v>317471194</v>
+        <v>319662418</v>
       </c>
       <c r="F891" t="s">
         <v>30</v>
@@ -32320,13 +32320,13 @@
         <v>12</v>
       </c>
       <c r="C892">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D892">
         <v>52</v>
       </c>
       <c r="E892">
-        <v>5476994</v>
+        <v>5520708</v>
       </c>
       <c r="F892" t="s">
         <v>30</v>
@@ -32390,13 +32390,13 @@
         <v>12</v>
       </c>
       <c r="C894">
-        <v>47894</v>
+        <v>48068</v>
       </c>
       <c r="D894">
-        <v>8851</v>
+        <v>8856</v>
       </c>
       <c r="E894">
-        <v>226237836</v>
+        <v>227601905</v>
       </c>
       <c r="F894" t="s">
         <v>30</v>
@@ -32460,13 +32460,13 @@
         <v>12</v>
       </c>
       <c r="C896">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D896">
         <v>292</v>
       </c>
       <c r="E896">
-        <v>1919514</v>
+        <v>1924310</v>
       </c>
       <c r="F896" t="s">
         <v>30</v>
@@ -32495,13 +32495,13 @@
         <v>12</v>
       </c>
       <c r="C897">
-        <v>2655</v>
+        <v>2670</v>
       </c>
       <c r="D897">
         <v>478</v>
       </c>
       <c r="E897">
-        <v>9148458</v>
+        <v>9300946</v>
       </c>
       <c r="F897" t="s">
         <v>30</v>
@@ -32530,13 +32530,13 @@
         <v>12</v>
       </c>
       <c r="C898">
-        <v>174605</v>
+        <v>175032</v>
       </c>
       <c r="D898">
-        <v>40111</v>
+        <v>40118</v>
       </c>
       <c r="E898">
-        <v>283827373</v>
+        <v>284743967</v>
       </c>
       <c r="F898" t="s">
         <v>30</v>
@@ -32705,13 +32705,13 @@
         <v>12</v>
       </c>
       <c r="C903">
-        <v>1237</v>
+        <v>1245</v>
       </c>
       <c r="D903">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E903">
-        <v>8482962</v>
+        <v>8596690</v>
       </c>
       <c r="F903" t="s">
         <v>30</v>
@@ -32775,13 +32775,13 @@
         <v>12</v>
       </c>
       <c r="C905">
-        <v>81059</v>
+        <v>81394</v>
       </c>
       <c r="D905">
-        <v>17402</v>
+        <v>17405</v>
       </c>
       <c r="E905">
-        <v>350149525</v>
+        <v>352725008</v>
       </c>
       <c r="F905" t="s">
         <v>30</v>
@@ -32810,13 +32810,13 @@
         <v>12</v>
       </c>
       <c r="C906">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D906">
         <v>36</v>
       </c>
       <c r="E906">
-        <v>2917698</v>
+        <v>2950951</v>
       </c>
       <c r="F906" t="s">
         <v>30</v>
@@ -32880,13 +32880,13 @@
         <v>12</v>
       </c>
       <c r="C908">
-        <v>65774</v>
+        <v>66022</v>
       </c>
       <c r="D908">
-        <v>13214</v>
+        <v>13218</v>
       </c>
       <c r="E908">
-        <v>277068542</v>
+        <v>279193959</v>
       </c>
       <c r="F908" t="s">
         <v>30</v>
@@ -32915,13 +32915,13 @@
         <v>12</v>
       </c>
       <c r="C909">
-        <v>1479</v>
+        <v>1486</v>
       </c>
       <c r="D909">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E909">
-        <v>3726936</v>
+        <v>3797711</v>
       </c>
       <c r="F909" t="s">
         <v>30</v>
@@ -32950,13 +32950,13 @@
         <v>12</v>
       </c>
       <c r="C910">
-        <v>6288</v>
+        <v>6310</v>
       </c>
       <c r="D910">
         <v>1151</v>
       </c>
       <c r="E910">
-        <v>21319186</v>
+        <v>21436319</v>
       </c>
       <c r="F910" t="s">
         <v>30</v>
@@ -32985,13 +32985,13 @@
         <v>12</v>
       </c>
       <c r="C911">
-        <v>27382</v>
+        <v>27506</v>
       </c>
       <c r="D911">
-        <v>5469</v>
+        <v>5472</v>
       </c>
       <c r="E911">
-        <v>56497846</v>
+        <v>56852978</v>
       </c>
       <c r="F911" t="s">
         <v>30</v>
@@ -33125,13 +33125,13 @@
         <v>12</v>
       </c>
       <c r="C915">
-        <v>9978</v>
+        <v>10030</v>
       </c>
       <c r="D915">
         <v>1926</v>
       </c>
       <c r="E915">
-        <v>57661189</v>
+        <v>58177554</v>
       </c>
       <c r="F915" t="s">
         <v>30</v>
@@ -33195,13 +33195,13 @@
         <v>12</v>
       </c>
       <c r="C917">
-        <v>3622</v>
+        <v>3649</v>
       </c>
       <c r="D917">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E917">
-        <v>21289539</v>
+        <v>21511953</v>
       </c>
       <c r="F917" t="s">
         <v>30</v>
@@ -33230,13 +33230,13 @@
         <v>12</v>
       </c>
       <c r="C918">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D918">
         <v>76</v>
       </c>
       <c r="E918">
-        <v>516207</v>
+        <v>531078</v>
       </c>
       <c r="F918" t="s">
         <v>30</v>
@@ -33335,13 +33335,13 @@
         <v>12</v>
       </c>
       <c r="C921">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D921">
         <v>131</v>
       </c>
       <c r="E921">
-        <v>2846459</v>
+        <v>2864008</v>
       </c>
       <c r="F921" t="s">
         <v>30</v>
@@ -33370,13 +33370,13 @@
         <v>12</v>
       </c>
       <c r="C922">
-        <v>112516</v>
+        <v>112767</v>
       </c>
       <c r="D922">
-        <v>26747</v>
+        <v>26752</v>
       </c>
       <c r="E922">
-        <v>186775658</v>
+        <v>187282168</v>
       </c>
       <c r="F922" t="s">
         <v>30</v>
@@ -33405,13 +33405,13 @@
         <v>12</v>
       </c>
       <c r="C923">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D923">
         <v>23</v>
       </c>
       <c r="E923">
-        <v>188150</v>
+        <v>198150</v>
       </c>
       <c r="F923" t="s">
         <v>30</v>
@@ -33475,13 +33475,13 @@
         <v>12</v>
       </c>
       <c r="C925">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="D925">
         <v>140</v>
       </c>
       <c r="E925">
-        <v>5210756</v>
+        <v>5262662</v>
       </c>
       <c r="F925" t="s">
         <v>30</v>
@@ -33510,13 +33510,13 @@
         <v>12</v>
       </c>
       <c r="C926">
-        <v>45109</v>
+        <v>45301</v>
       </c>
       <c r="D926">
-        <v>10051</v>
+        <v>10056</v>
       </c>
       <c r="E926">
-        <v>207273772</v>
+        <v>209065554</v>
       </c>
       <c r="F926" t="s">
         <v>30</v>
@@ -33545,13 +33545,13 @@
         <v>12</v>
       </c>
       <c r="C927">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D927">
         <v>28</v>
       </c>
       <c r="E927">
-        <v>2629610</v>
+        <v>2656521</v>
       </c>
       <c r="F927" t="s">
         <v>30</v>
@@ -33580,13 +33580,13 @@
         <v>12</v>
       </c>
       <c r="C928">
-        <v>32510</v>
+        <v>32616</v>
       </c>
       <c r="D928">
-        <v>6816</v>
+        <v>6820</v>
       </c>
       <c r="E928">
-        <v>147150005</v>
+        <v>147962682</v>
       </c>
       <c r="F928" t="s">
         <v>30</v>
@@ -33650,13 +33650,13 @@
         <v>12</v>
       </c>
       <c r="C930">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="D930">
         <v>357</v>
       </c>
       <c r="E930">
-        <v>4555099</v>
+        <v>4595084</v>
       </c>
       <c r="F930" t="s">
         <v>30</v>
@@ -33685,13 +33685,13 @@
         <v>12</v>
       </c>
       <c r="C931">
-        <v>2304</v>
+        <v>2310</v>
       </c>
       <c r="D931">
         <v>437</v>
       </c>
       <c r="E931">
-        <v>7655728</v>
+        <v>7678593</v>
       </c>
       <c r="F931" t="s">
         <v>30</v>
@@ -33720,13 +33720,13 @@
         <v>12</v>
       </c>
       <c r="C932">
-        <v>57520</v>
+        <v>57640</v>
       </c>
       <c r="D932">
         <v>13514</v>
       </c>
       <c r="E932">
-        <v>96852569</v>
+        <v>97202092</v>
       </c>
       <c r="F932" t="s">
         <v>30</v>
@@ -33825,13 +33825,13 @@
         <v>12</v>
       </c>
       <c r="C935">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D935">
         <v>53</v>
       </c>
       <c r="E935">
-        <v>1950039</v>
+        <v>1970039</v>
       </c>
       <c r="F935" t="s">
         <v>30</v>
@@ -33860,13 +33860,13 @@
         <v>12</v>
       </c>
       <c r="C936">
-        <v>25243</v>
+        <v>25324</v>
       </c>
       <c r="D936">
         <v>5346</v>
       </c>
       <c r="E936">
-        <v>109324980</v>
+        <v>110003494</v>
       </c>
       <c r="F936" t="s">
         <v>30</v>
@@ -33930,13 +33930,13 @@
         <v>12</v>
       </c>
       <c r="C938">
-        <v>16015</v>
+        <v>16069</v>
       </c>
       <c r="D938">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="E938">
-        <v>70097993</v>
+        <v>70494238</v>
       </c>
       <c r="F938" t="s">
         <v>30</v>
@@ -34000,13 +34000,13 @@
         <v>12</v>
       </c>
       <c r="C940">
-        <v>1728</v>
+        <v>1736</v>
       </c>
       <c r="D940">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E940">
-        <v>9061739</v>
+        <v>9131782</v>
       </c>
       <c r="F940" t="s">
         <v>30</v>
@@ -34035,13 +34035,13 @@
         <v>12</v>
       </c>
       <c r="C941">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="D941">
         <v>340</v>
       </c>
       <c r="E941">
-        <v>6594960</v>
+        <v>6667149</v>
       </c>
       <c r="F941" t="s">
         <v>30</v>
